--- a/data/02_intermediate/cleaned_Dee_Nasty_songs.xlsx
+++ b/data/02_intermediate/cleaned_Dee_Nasty_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21 DJ'sYou might also like1</t>
+          <t>21 DJ's1</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil 1983, il y a plus de dix ans déjà Le Hip Hop en France faisait ses premiers pas Il n'y avait pas de règles, pas de loi Non, surtout pas de contrat Pas de problèmes entre toi et moi Tout était clair, du but à la manière Dont tout devait se faire, naïf, novice, mais tellement fier D'évoluer dans un système parallèle Où les valeurs de base étaient pêle-mêle Peace, Unity, Love and Having Fun Le Hip Hop n'a jamais eu besoin de gun Ni de gang, de toys, ni de bande Mais plutôt de la foi de ce qui en défendent La mémoire et l'éthique, les valeurs essentielles Celles qui créent encore l'étincelle lorsque je me rappelle Des premières heures du terrain vague de La Chapelle A l'époque, les héros s'appelaient Aktuel Lucien, Dee Nasty, Te-Col et Meo Big up, big up pour être restés au-ssi longtemps tout en haut De l'affiche, aussi haut que le flow de mes mots Il en aura fallu du boulot, des heures et des heures Et des jours et des jours, et des années, même Pour que le Hip Hop tienne Tout ne fût pas si facile pour le Suprême You might also like Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil Tout ne tient qu'à un fil, donc l'on se doit d'être habile Car l'amitié mais aussi la sincérité, ouais Sont des choses qui à tout moment peuvent déflagrer C'est le côté obscur que cache notre nature Ouais ! J'en ai l'exemple, ça m'a foutu une trempe Qui m'a ouvert les yeux sur ce sujet bien épineux, tant mieux Croyant que la galère nous ralliait sous une bannière Croyant que la galère faisait de nous des frères Hier, c'était le cas, pas si longtemps, dis-moi Non, trois, quatre ans maximum, puis il y a eu maldonne A savoir la façon dont a évolué notre histoire Et ô combien l'unité, même en pensée, est illusoire Oh ! C'est bon, laissez tomber les mouchoirs C'est OK, on est toujours là pour foutre la foire Effectif diminué et un obstacle déjà sauté Qui nous a à peine freiné, mais sachez que Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil On a grandi ensemble, on a construit ensemble Je me remémore les discussions que l'on avait ensemble Et nos rêves, tu t'en souviens de nos rêves ? Quand on était dans les hangars, quand on sentait monter la fièvre Putain, c'est loin, tout ça, c'est loin J'ai passé mon adolescence à défoncer des trains Je ne regrette rien On a tellement tutoyé de fois le bonheur qu'on pourrait mourir demain Sans regret, sans remords Notre seule erreur était de rêver un peu trop fort En omettant le rôle important que pouvait jouer le temps Sur les comportements de chacun, pourtant On venait tous du même quartier On avait tous la même culture de cité Ouais ! C'était vraiment l'idéal, en effet On avait vraiment tout pour réussir, mais, mais Tout n'est pas si facile Les destins se séparent, l'amitié, c'est fragile Pour nous, la vie ne fut jamais un long fleuve tranquille Et aujourd'hui encore, tout n'est pas si facile Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil3</t>
+          <t>Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil 1983, il y a plus de dix ans déjà Le Hip Hop en France faisait ses premiers pas Il n'y avait pas de règles, pas de loi Non, surtout pas de contrat Pas de problèmes entre toi et moi Tout était clair, du but à la manière Dont tout devait se faire, naïf, novice, mais tellement fier D'évoluer dans un système parallèle Où les valeurs de base étaient pêle-mêle Peace, Unity, Love and Having Fun Le Hip Hop n'a jamais eu besoin de gun Ni de gang, de toys, ni de bande Mais plutôt de la foi de ce qui en défendent La mémoire et l'éthique, les valeurs essentielles Celles qui créent encore l'étincelle lorsque je me rappelle Des premières heures du terrain vague de La Chapelle A l'époque, les héros s'appelaient Aktuel Lucien, Dee Nasty, Te-Col et Meo Big up, big up pour être restés au-ssi longtemps tout en haut De l'affiche, aussi haut que le flow de mes mots Il en aura fallu du boulot, des heures et des heures Et des jours et des jours, et des années, même Pour que le Hip Hop tienne Tout ne fût pas si facile pour le Suprême Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil Tout ne tient qu'à un fil, donc l'on se doit d'être habile Car l'amitié mais aussi la sincérité, ouais Sont des choses qui à tout moment peuvent déflagrer C'est le côté obscur que cache notre nature Ouais ! J'en ai l'exemple, ça m'a foutu une trempe Qui m'a ouvert les yeux sur ce sujet bien épineux, tant mieux Croyant que la galère nous ralliait sous une bannière Croyant que la galère faisait de nous des frères Hier, c'était le cas, pas si longtemps, dis-moi Non, trois, quatre ans maximum, puis il y a eu maldonne A savoir la façon dont a évolué notre histoire Et ô combien l'unité, même en pensée, est illusoire Oh ! C'est bon, laissez tomber les mouchoirs C'est OK, on est toujours là pour foutre la foire Effectif diminué et un obstacle déjà sauté Qui nous a à peine freiné, mais sachez que Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil On a grandi ensemble, on a construit ensemble Je me remémore les discussions que l'on avait ensemble Et nos rêves, tu t'en souviens de nos rêves ? Quand on était dans les hangars, quand on sentait monter la fièvre Putain, c'est loin, tout ça, c'est loin J'ai passé mon adolescence à défoncer des trains Je ne regrette rien On a tellement tutoyé de fois le bonheur qu'on pourrait mourir demain Sans regret, sans remords Notre seule erreur était de rêver un peu trop fort En omettant le rôle important que pouvait jouer le temps Sur les comportements de chacun, pourtant On venait tous du même quartier On avait tous la même culture de cité Ouais ! C'était vraiment l'idéal, en effet On avait vraiment tout pour réussir, mais, mais Tout n'est pas si facile Les destins se séparent, l'amitié, c'est fragile Pour nous, la vie ne fut jamais un long fleuve tranquille Et aujourd'hui encore, tout n'est pas si facile Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil Tout n'est pas si facile, tout ne tient qu'à un fil3</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Baby Baby Baby Baby, j'ai câblé pour toi Sans intérêt, me d'mande pas pourquoi Ce soir, j'innove, j'fume la zaza Un tas de tourments qui m'suivent et qui m'suivront pour l'reste de ma life Ce love est dangereux et se consomme comme une drogue Drogue La première fois qu'on s'est vus, c'était nasty dans la loge Loge J'aime beaucoup ton approche 'che mais tu sais, j'n'aime que les lovés, mon cur est codé, nan Mais que dois-je encore t'expliquer ? Qui pourrait éclaircir ce mystère que t'entretiens autour de moi ? La nuit nous appartient mais tu veux continuer, jusqu'à tout déchirer Baby, j'ai câblé pour toi Sans intérêt, me d'mande pas pourquoi Ce soir, j'innove, j'fume la zaza Un tas de tourments qui m'suivent et qui m'suivront pour l'reste de ma life Ma life Yes, babe, chemise ouverte You might also like Oh-la-la-la-la-la, j'n'ai plus vraiment le moral, la-la-la-la Des putes à foison, serviettes étanches mouillent comme dauphins, dauphines Coquine, salope, oui Salope veut mon juice comme toutes ses copines Hey J't'ai menti dans les yeux Eh, j't'ai dit qu'j'tais amoureux Ouais Mais dis-moi, qu'est-ce qu'un cur brisé pourrait faire de mieux ? Mmh Avancer seuls à deux Oui, traverser vent et feu Oui Dire au monde qu'au final, souffrir, c'est c'qu'on fait de mieux, oh, oh, oh-oh Baby, j'ai câblé pour toi Sans intérêt, me d'mande pas pourquoi Ce soir, j'innove, j'fume la zaza Un tas de tourments qui m'suivent et qui m'suivront pour l'reste de ma life Essuie toi ta salive, t'es comme toutes tes copines Un peu trop possessive, ne t'approche pas, j'suis nocif Oh, na-na-na-na, la tain-p' me grimpe et saute sur moi J'te préviens, faut qu'ça reste lowkey, ils calculent pas c'qu'on dit, des fois, j'm'ennuie Donc je rode toute la night, toute la night Donc je rode toute la night Oh baby, donc je rode, toute la night Oh-oh-oh-oh Baby, j'ai câblé pour toi Sans intérêt, me d'mande pas pourquoi Ce soir, j'innove, j'fume la zaza Un tas de tourments qui m'suivent et qui m'suivront pour l'reste de ma life Toute ma life Oh, babe, it's alright Oh, babe, it's alright Oh, babe, it's alright1</t>
+          <t>Baby Baby Baby Baby, j'ai câblé pour toi Sans intérêt, me d'mande pas pourquoi Ce soir, j'innove, j'fume la zaza Un tas de tourments qui m'suivent et qui m'suivront pour l'reste de ma life Ce love est dangereux et se consomme comme une drogue Drogue La première fois qu'on s'est vus, c'était nasty dans la loge Loge J'aime beaucoup ton approche 'che mais tu sais, j'n'aime que les lovés, mon cur est codé, nan Mais que dois-je encore t'expliquer ? Qui pourrait éclaircir ce mystère que t'entretiens autour de moi ? La nuit nous appartient mais tu veux continuer, jusqu'à tout déchirer Baby, j'ai câblé pour toi Sans intérêt, me d'mande pas pourquoi Ce soir, j'innove, j'fume la zaza Un tas de tourments qui m'suivent et qui m'suivront pour l'reste de ma life Ma life Yes, babe, chemise ouverte Oh-la-la-la-la-la, j'n'ai plus vraiment le moral, la-la-la-la Des putes à foison, serviettes étanches mouillent comme dauphins, dauphines Coquine, salope, oui Salope veut mon juice comme toutes ses copines Hey J't'ai menti dans les yeux Eh, j't'ai dit qu'j'tais amoureux Ouais Mais dis-moi, qu'est-ce qu'un cur brisé pourrait faire de mieux ? Mmh Avancer seuls à deux Oui, traverser vent et feu Oui Dire au monde qu'au final, souffrir, c'est c'qu'on fait de mieux, oh, oh, oh-oh Baby, j'ai câblé pour toi Sans intérêt, me d'mande pas pourquoi Ce soir, j'innove, j'fume la zaza Un tas de tourments qui m'suivent et qui m'suivront pour l'reste de ma life Essuie toi ta salive, t'es comme toutes tes copines Un peu trop possessive, ne t'approche pas, j'suis nocif Oh, na-na-na-na, la tain-p' me grimpe et saute sur moi J'te préviens, faut qu'ça reste lowkey, ils calculent pas c'qu'on dit, des fois, j'm'ennuie Donc je rode toute la night, toute la night Donc je rode toute la night Oh baby, donc je rode, toute la night Oh-oh-oh-oh Baby, j'ai câblé pour toi Sans intérêt, me d'mande pas pourquoi Ce soir, j'innove, j'fume la zaza Un tas de tourments qui m'suivent et qui m'suivront pour l'reste de ma life Toute ma life Oh, babe, it's alright Oh, babe, it's alright Oh, babe, it's alright1</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pour les femelles et les mâles Big Red s'installe Mets-nous du son d'chacal Tout le monde lève la main dans la salle Pour les femelles et les mâles Big Red s'installe Mets-nous du son d'chacal Fais moi oublier que j'crève la dalle Elles sont toutes en train de rêver Qu'elles sont comme ma femme toujours à mes cotés Chienne tu profanes ta virginité Condamnée à moisir tous les jours que Dieu fait Rien à foutre j'suis en train de m'éclater Allez barre-toi salope, t'es pas une femme respectée Tu bouffes des capotes, ton sexe peut parler Y a des chiens qui chipotent pas sur une bonne ne-chie Pousse-toi d'mon chemin, je parle au DJ jusqu'au petit matin Mets du Fat Funky, fais pas ta putain avec du Wu-Tang pourri Mets-nous du vrai son, de la nostalgie T'es peut-être né trop tôt pour comprendre c'que je dis Toi tu faisais dodo, je sillonnais Paris C'est pas au Bobino que tout est parti Bien avant l'Globo, je connaissais Dee Nasty C'était chaud avant 82, rien qu'on tournait sur le dos l'dimanche après-midi J'te montre les photos, t'hallucines, je te dis Plus raide est le niveau comparé à aujourd'hui You might also like Pour les femelles et les mâles Big Red s'installe Mets-nous du son d'chacal Tout le monde lève la main dans la salle Pour les femelles et les mâles Big Red s'installe Mets-nous du son d'chacal Fais moi oublier que j'crève la dalle Tout le monde sur la piste, on va rayer ça vite Mon nom est sur la liste, pas besoin d'invite Qui résiste à la 808 Rude t'as rien inventé en programmant ce beat Mais c'est d'la bombe, d'la balle, d'la dynamite C'est pour les mecs du monde qu'ont les boules d'un pit Gangster des ondes, rien qu'ils m'irritent De plus en plus ils abondent comme les termites Ou j'les fais fondre, ou j'les effrite Dans ma main j'les malaxe comme du bon shit Je suis cool relax tel un tireur d'élite Tout ce que je veux c'est kiffer un maximum sur No Limit Tout le monde est en mouvement, ne te fais pas de mauvais sang De 7 à 77 ans viens avec nous passer du bon temps Mais sur la scène des sound t'as les rude-boys qui grondent Les girlies qui fondent, les sound boys creusent leurs tombes La vibe est profonde tu t'laisses pousser les cheveux Pendant que d'autres se tondent et vont voter Pen Le Nous on est cool feel irie, on s'exprime la nuit Big Red pon the mic qui anime c'est Si comme nous t'as la nostalgie y a un os t'as pas l'âge si Je vois que t'as pas la rage alors tu comprends ce que je dis Ou tu passes la nuit dans une cage, ou tu viens féki Toi t'as été suffisamment sage pour être puni Sache que c'est Pour les femelles et les mâles Big Red s'installe Mets-nous du son d'chacal Tout le monde lève la main dans la salle Pour les femelles et les mâles Big Red s'installe Mets-nous du son d'chacal Fais moi oublier que j'crève la dalle</t>
+          <t>Pour les femelles et les mâles Big Red s'installe Mets-nous du son d'chacal Tout le monde lève la main dans la salle Pour les femelles et les mâles Big Red s'installe Mets-nous du son d'chacal Fais moi oublier que j'crève la dalle Elles sont toutes en train de rêver Qu'elles sont comme ma femme toujours à mes cotés Chienne tu profanes ta virginité Condamnée à moisir tous les jours que Dieu fait Rien à foutre j'suis en train de m'éclater Allez barre-toi salope, t'es pas une femme respectée Tu bouffes des capotes, ton sexe peut parler Y a des chiens qui chipotent pas sur une bonne ne-chie Pousse-toi d'mon chemin, je parle au DJ jusqu'au petit matin Mets du Fat Funky, fais pas ta putain avec du Wu-Tang pourri Mets-nous du vrai son, de la nostalgie T'es peut-être né trop tôt pour comprendre c'que je dis Toi tu faisais dodo, je sillonnais Paris C'est pas au Bobino que tout est parti Bien avant l'Globo, je connaissais Dee Nasty C'était chaud avant 82, rien qu'on tournait sur le dos l'dimanche après-midi J'te montre les photos, t'hallucines, je te dis Plus raide est le niveau comparé à aujourd'hui Pour les femelles et les mâles Big Red s'installe Mets-nous du son d'chacal Tout le monde lève la main dans la salle Pour les femelles et les mâles Big Red s'installe Mets-nous du son d'chacal Fais moi oublier que j'crève la dalle Tout le monde sur la piste, on va rayer ça vite Mon nom est sur la liste, pas besoin d'invite Qui résiste à la 808 Rude t'as rien inventé en programmant ce beat Mais c'est d'la bombe, d'la balle, d'la dynamite C'est pour les mecs du monde qu'ont les boules d'un pit Gangster des ondes, rien qu'ils m'irritent De plus en plus ils abondent comme les termites Ou j'les fais fondre, ou j'les effrite Dans ma main j'les malaxe comme du bon shit Je suis cool relax tel un tireur d'élite Tout ce que je veux c'est kiffer un maximum sur No Limit Tout le monde est en mouvement, ne te fais pas de mauvais sang De 7 à 77 ans viens avec nous passer du bon temps Mais sur la scène des sound t'as les rude-boys qui grondent Les girlies qui fondent, les sound boys creusent leurs tombes La vibe est profonde tu t'laisses pousser les cheveux Pendant que d'autres se tondent et vont voter Pen Le Nous on est cool feel irie, on s'exprime la nuit Big Red pon the mic qui anime c'est Si comme nous t'as la nostalgie y a un os t'as pas l'âge si Je vois que t'as pas la rage alors tu comprends ce que je dis Ou tu passes la nuit dans une cage, ou tu viens féki Toi t'as été suffisamment sage pour être puni Sache que c'est Pour les femelles et les mâles Big Red s'installe Mets-nous du son d'chacal Tout le monde lève la main dans la salle Pour les femelles et les mâles Big Red s'installe Mets-nous du son d'chacal Fais moi oublier que j'crève la dalle</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Something's on in your town Can you hear that sound I bet it's strict from the underground It's my man Yoshi crushing MCs down One by one XXX Grand Master XXX Zulu Nation baby XXX rock the party All my B-Boys goes Yeah All my B-Boys goes Ohh Your speakers XXX spreads Hip-Hop Momo You might also like</t>
+          <t>Something's on in your town Can you hear that sound I bet it's strict from the underground It's my man Yoshi crushing MCs down One by one XXX Grand Master XXX Zulu Nation baby XXX rock the party All my B-Boys goes Yeah All my B-Boys goes Ohh Your speakers XXX spreads Hip-Hop Momo</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>J'ai découvert le hip-hop vers 87 Casquette, baskets, même plate, fat laces Ghetto blaster, starter, Grandmaster Exaspère les profs et les gosses dansent par terre Scratcher, breaker, rapper, graffer Maintenant les Mc's rappent en français Freestyle, sur Deenastyle, Rapline Walkman, grosses Nike, Adidas et grosses baffles Retour à la source, au départ de la course à l'époque J'étais le mouton blanc dans la brousse Discret, je rappais en douce Dans l'son, je claquais mon flooze Hip-hop nostalgique, j'retourne à la source Au petit dèj je consomme voyelles et consonnes Les syllabes me consolent de mon sort de mon solde Mais j'me fous qu'on m'ponctionne tant que le funk sonne Que les breakers ont l'bon sol que les platines fonctionnent Que les morceaux s'enchaînent par centaines et m'entraînent A l'antenne et enseignent, à l'ancienne et dans l'thème Sans peine, sans qu'j'm'en plaigne, sans plaie, sans qu'j'en saigne Pour ceux qui dansent, ceux qui peignent, ceux qui tchatchent comme des teignes You might also like Ma casquette mon ghetto blaster Hip-hop à la folie J'breakais dans les halls ou sur les pavés Hip-hop à la folie Battle sur le mic ou sur les dancefloors Hip-hop à la folie Mon poska ma bombe, c'est le ghetto Hip-hop à la folie Le nègre est jeune, dingue, célèbre, Beaucoup d'amis très peu d'ennemis parce que l'micro m'a fait Et je n'donne pas dans la drogue ou l'arnaque, j'suis dans le sport et la drague J'suis un ange, mais chaque strophe est un diable A tous les designers qui s'trouvent en dèche J'vais vous donner du taf, car dès qu'je rappe beaucoup retournent leurs vestes Et j'n'use pas de griffes pour leur tordre le coup 16 mesures devraient suffire à t'faire mordre la boue Car la rue m'a nommé l'Roi de la ville, mon sceptre un micro HF Mais sur les planches, j'préfère avoir un fil Je fais facilement salle comble, mon nom les attire On monte sur scène comme on baise, on crache et on se retire Papier, stylo, studio, micro, jeux d'mots, cash flow, télé, radio, hip hop! Hip-hop, ça y est t'es ma go Je sais, ça fait démago J'laisse les faux cracher des ragots Les , cacher des magots Ma casquette mon ghetto blaster Hip-hop à la folie J'breakais dans les halls ou sur les pavés Hip-hop à la folie Battle sur le mic ou sur les dancefloors Hip-hop à la folie Mon poska ma bombe, c'est le ghetto Hip-hop à la folie One for the treble, two for the bass, yes yes yo, and you don't stop On veut du hip, hop, on milite, en kickant sur le beat yo and you don't stop Ça sent le requin, mais ce son te requinque, sensass! Les disciplines sollicitent 4 des 5 sens La vue pour le graff, le goût pour la rime Le toucher pour la danse, l'ouïe pour les platines Qu'importe la discipline, sois redoutable Bombe ou tague, scratche ou grab, sinon taffe les vocables Et passe le mic, battle, pas d'complexe Compète, contest, trop d'textes complexes Contexte complètement effervescent Concrètement, l'mouvement naissant Fatcap, une vague de tags envahit l'asphalte Graffeur cramé comme Lee Harvey Oswald Ma casquette mon ghetto blaster Hip-hop à la folie J'breakais dans les halls ou sur les pavés Hip-hop à la folie Battle sur le mic ou sur les dancefloors Hip-hop à la folie Mon poska ma bombe, c'est le ghetto Hip-hop à la folie</t>
+          <t>J'ai découvert le hip-hop vers 87 Casquette, baskets, même plate, fat laces Ghetto blaster, starter, Grandmaster Exaspère les profs et les gosses dansent par terre Scratcher, breaker, rapper, graffer Maintenant les Mc's rappent en français Freestyle, sur Deenastyle, Rapline Walkman, grosses Nike, Adidas et grosses baffles Retour à la source, au départ de la course à l'époque J'étais le mouton blanc dans la brousse Discret, je rappais en douce Dans l'son, je claquais mon flooze Hip-hop nostalgique, j'retourne à la source Au petit dèj je consomme voyelles et consonnes Les syllabes me consolent de mon sort de mon solde Mais j'me fous qu'on m'ponctionne tant que le funk sonne Que les breakers ont l'bon sol que les platines fonctionnent Que les morceaux s'enchaînent par centaines et m'entraînent A l'antenne et enseignent, à l'ancienne et dans l'thème Sans peine, sans qu'j'm'en plaigne, sans plaie, sans qu'j'en saigne Pour ceux qui dansent, ceux qui peignent, ceux qui tchatchent comme des teignes Ma casquette mon ghetto blaster Hip-hop à la folie J'breakais dans les halls ou sur les pavés Hip-hop à la folie Battle sur le mic ou sur les dancefloors Hip-hop à la folie Mon poska ma bombe, c'est le ghetto Hip-hop à la folie Le nègre est jeune, dingue, célèbre, Beaucoup d'amis très peu d'ennemis parce que l'micro m'a fait Et je n'donne pas dans la drogue ou l'arnaque, j'suis dans le sport et la drague J'suis un ange, mais chaque strophe est un diable A tous les designers qui s'trouvent en dèche J'vais vous donner du taf, car dès qu'je rappe beaucoup retournent leurs vestes Et j'n'use pas de griffes pour leur tordre le coup 16 mesures devraient suffire à t'faire mordre la boue Car la rue m'a nommé l'Roi de la ville, mon sceptre un micro HF Mais sur les planches, j'préfère avoir un fil Je fais facilement salle comble, mon nom les attire On monte sur scène comme on baise, on crache et on se retire Papier, stylo, studio, micro, jeux d'mots, cash flow, télé, radio, hip hop! Hip-hop, ça y est t'es ma go Je sais, ça fait démago J'laisse les faux cracher des ragots Les , cacher des magots Ma casquette mon ghetto blaster Hip-hop à la folie J'breakais dans les halls ou sur les pavés Hip-hop à la folie Battle sur le mic ou sur les dancefloors Hip-hop à la folie Mon poska ma bombe, c'est le ghetto Hip-hop à la folie One for the treble, two for the bass, yes yes yo, and you don't stop On veut du hip, hop, on milite, en kickant sur le beat yo and you don't stop Ça sent le requin, mais ce son te requinque, sensass! Les disciplines sollicitent 4 des 5 sens La vue pour le graff, le goût pour la rime Le toucher pour la danse, l'ouïe pour les platines Qu'importe la discipline, sois redoutable Bombe ou tague, scratche ou grab, sinon taffe les vocables Et passe le mic, battle, pas d'complexe Compète, contest, trop d'textes complexes Contexte complètement effervescent Concrètement, l'mouvement naissant Fatcap, une vague de tags envahit l'asphalte Graffeur cramé comme Lee Harvey Oswald Ma casquette mon ghetto blaster Hip-hop à la folie J'breakais dans les halls ou sur les pavés Hip-hop à la folie Battle sur le mic ou sur les dancefloors Hip-hop à la folie Mon poska ma bombe, c'est le ghetto Hip-hop à la folie</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Chacune d'mes traces est machiavélique On dit qu'mon flow est mélancolique La prod' est signée En'Zoo, t'as ressenti l'truc d'Amérique ? Y'a des lignes, t'as des rimes, et si t'es hip-hop t'es partant Si t'as fini, rembobine et reçois mon son comme partage Qu'on s'attache et qu'on placarde De nuit ou sous une lampe Si j't'ai éclairé sur l'sujet, pourquoi on s'amuse mieux en Hollande ? Ça taffe depuis un moment C'est tout c'qu'on veut retransmettre Notre rap n'a pas d'visage, c'est tout c'qui fait sa beauté Excusez-nous d'être honnêtes, d'aimer l'hip-hop à la lettre Pour moi un bon son d'Big L c'est mieux qu'les filles d'à coté J'ai trop d'choses à noter, demande à R.Can J'suis de Sète jusqu'à Perpi', et ceux qui m'traduisent en Espagne Gueuler ou me taire, parler ou mentir Le stylo Bic d'Harry Potter, pas une magie pour rebondir Un album que j'm'enterre, j'viens d'loin comment vous dire Et que Dieu m'en soit témoin, j'n'ai pas d'maille pour les coquines J'n'ai pas l'temps je le confirme Si tu n'm'aimes pas je fais avec J'parle français, ma consigne sans la CB de Ben Affleck Sans l'CV de ceux qui grimpent, qu'on retrouve une fois en-bas Pendant qu't'étais dans tes studios, ben ton père s'tuait au taf Inutile d'chercher une dame, d'après la reine tu ne comptes pas Fais l'calcul ça n'aide plus d'avoir un BEP compta' Ça sert à quoi de rester stable, souriant voire amical ? À force de regarder les gens, j'comprends tes douleurs cervicales You might also like Ne t'inquiète pas on est tous pareils Toi qui vit autre part écoute, my man Je crois que l'écriture et la musique t'amènent Voir que chacun d'entre nous a un p'tit problème Woho Oh mon Dieu qu'elle nous a fait progressé Big up à ceux qui nous ont lâchés, qui n'ont connu que la période d'essai On est dedans depuis le début, sans notice, très impliqués Tu peux courir avant qu'mes valeurs ne se pervertissent J'zappe ceux qui trahissent, j'regarde ceux qui sourient J'suis comme un gamin quand Dee Nasty fait mon warm-up à Paris Alors non merci si mon rap n'est pas porteur de message S'il n'est pas une bouée dans l'aquarium où le Monde nage S'il n'est pas une perche tendue vers un avenir optimiste Secouez-moi si un jour il perd sa flamme militantiste Hip-hop jusqu'à l'amour comme Nabil Zéroual Le plus important c'est le chemin, pas d'atteindre l'étoile Intègre et sans aucun problème existentiel Bien sûr que l'rap c'était mieux avant, et ça c'est officiel J'parle de valeurs, de message, pas d'instrumentale Mais d'ceux qui sont dessus et te saoulent en faisant l'apologie du mal Avec le temps tu t'rendras compte qu'ils ne sont même pas fiables Ils ignorent tant d'choses, ils connaissent même pas Fabe Nous on est chauds, opé sans la te-car d'Affleck Ben Avec l'envie d'offrir à nos proches ce que vise Amel Bent Voilà ce qu'on défend, la façon dont on l'imagine Rachid, j'comprends qu'tu n'veuilles pas d'pâtes dans ton tajine Les fondations feront la tenue de tes entreprises Le but n'est pas qu'elles soient bancales comme celle érigé à Pise Ne t'inquiète pas on est tous pareils Toi qui vit autre part écoute, my man Je crois que l'écriture et la musique t'amènent Voir que chacun d'entre nous a un p'tit problème Woho</t>
+          <t>Chacune d'mes traces est machiavélique On dit qu'mon flow est mélancolique La prod' est signée En'Zoo, t'as ressenti l'truc d'Amérique ? Y'a des lignes, t'as des rimes, et si t'es hip-hop t'es partant Si t'as fini, rembobine et reçois mon son comme partage Qu'on s'attache et qu'on placarde De nuit ou sous une lampe Si j't'ai éclairé sur l'sujet, pourquoi on s'amuse mieux en Hollande ? Ça taffe depuis un moment C'est tout c'qu'on veut retransmettre Notre rap n'a pas d'visage, c'est tout c'qui fait sa beauté Excusez-nous d'être honnêtes, d'aimer l'hip-hop à la lettre Pour moi un bon son d'Big L c'est mieux qu'les filles d'à coté J'ai trop d'choses à noter, demande à R.Can J'suis de Sète jusqu'à Perpi', et ceux qui m'traduisent en Espagne Gueuler ou me taire, parler ou mentir Le stylo Bic d'Harry Potter, pas une magie pour rebondir Un album que j'm'enterre, j'viens d'loin comment vous dire Et que Dieu m'en soit témoin, j'n'ai pas d'maille pour les coquines J'n'ai pas l'temps je le confirme Si tu n'm'aimes pas je fais avec J'parle français, ma consigne sans la CB de Ben Affleck Sans l'CV de ceux qui grimpent, qu'on retrouve une fois en-bas Pendant qu't'étais dans tes studios, ben ton père s'tuait au taf Inutile d'chercher une dame, d'après la reine tu ne comptes pas Fais l'calcul ça n'aide plus d'avoir un BEP compta' Ça sert à quoi de rester stable, souriant voire amical ? À force de regarder les gens, j'comprends tes douleurs cervicales Ne t'inquiète pas on est tous pareils Toi qui vit autre part écoute, my man Je crois que l'écriture et la musique t'amènent Voir que chacun d'entre nous a un p'tit problème Woho Oh mon Dieu qu'elle nous a fait progressé Big up à ceux qui nous ont lâchés, qui n'ont connu que la période d'essai On est dedans depuis le début, sans notice, très impliqués Tu peux courir avant qu'mes valeurs ne se pervertissent J'zappe ceux qui trahissent, j'regarde ceux qui sourient J'suis comme un gamin quand Dee Nasty fait mon warm-up à Paris Alors non merci si mon rap n'est pas porteur de message S'il n'est pas une bouée dans l'aquarium où le Monde nage S'il n'est pas une perche tendue vers un avenir optimiste Secouez-moi si un jour il perd sa flamme militantiste Hip-hop jusqu'à l'amour comme Nabil Zéroual Le plus important c'est le chemin, pas d'atteindre l'étoile Intègre et sans aucun problème existentiel Bien sûr que l'rap c'était mieux avant, et ça c'est officiel J'parle de valeurs, de message, pas d'instrumentale Mais d'ceux qui sont dessus et te saoulent en faisant l'apologie du mal Avec le temps tu t'rendras compte qu'ils ne sont même pas fiables Ils ignorent tant d'choses, ils connaissent même pas Fabe Nous on est chauds, opé sans la te-car d'Affleck Ben Avec l'envie d'offrir à nos proches ce que vise Amel Bent Voilà ce qu'on défend, la façon dont on l'imagine Rachid, j'comprends qu'tu n'veuilles pas d'pâtes dans ton tajine Les fondations feront la tenue de tes entreprises Le but n'est pas qu'elles soient bancales comme celle érigé à Pise Ne t'inquiète pas on est tous pareils Toi qui vit autre part écoute, my man Je crois que l'écriture et la musique t'amènent Voir que chacun d'entre nous a un p'tit problème Woho</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ah yeah Ah yeah Pour de bon, je pars Je pars Vivre dans la honte, dans la peur du lendemain Dégoûté de vivre et d'exister chaque matin Vivre avec la folie des idées morbides Qui me rongent, m'attaquent la tronche, me bouffent le bide Complètement esseulé, j'me sens triste à dégueuler Me v'là dans un engrenage que j'ai du mal à arrêter Personne avec qui partager toutes mes souffrances chroniques J'dois me battre pour éviter un destin tragique Je crie, je hurle, déchire le silence J'suis prisonnier ici, ma voix parcourt des distances Malgré la misère, la colère passée Malgré les troubles contre lesquels j'ai dû lutter Je pense plutôt positif, regarde l'avenir Même si, comme Sur Anne, je ne vois rien venir Peut-être qu'un jour j'verrai le soleil me sourire Il me donnera la chance d'oublier le pire J'irai sous les tropiques ou n'importe où ailleurs Même si le beau temps ne garantit pas le bonheur Où que je sois sur Terre, j'serai p't-être toujours un crevard Qui oublie ses cauchemars et rêve qu'il part! You might also like Ah yeah! Je pars! Ah yeah! Je pars! Ah yeah! Je pars! Je pars! Enseveli sous les décombres d'un monde à la dérive Qui asservit les gens puis après les esquive Je prends ce qu'on me donne mais on ne me donne rien Ai-je suffisamment la rage pour me donner les moyens Il faut vraiment qu'je bouge, la liberté j'en crève J'peux plus bouger vraiment alors j'bougerai en rêve Voyager à travers le monde c'est c'que j'aurais voulu Mais pour s'offrir un voyage certains traversent la rue Je ne contrôle plus rien même pas mon imagination En plus, paraît qu'pour fuir il y a des solutions J'ai trop de spectres enfouis Qui me démangent jour et nuit Les démons de la poussière veulent être mes amis Ils me proposent des rêves en échange de ma vie Ma vie sur laquelle j'ai jamais eu d'contrôle Ma vie dans laquelle j'aurai jamais l'beau rôle Confiance en personne, j'ai perdu la foi J'porte en moi des remords comme on porte une croix Me laisse guider par les bas instincts comme les rats Tous mes réflexes humains sont si loin déjà Où que je sois sur Terre j'serai p't-être toujours un crevard Qui oublie ses cauchemars et rêve qu'il part! Ah yeah! Je pars! pour de bon je pars Ah yeah! Je pars! pour de bon je pars Je pars! Je pars! pour de bon je pars Après des années d'errance, j'regarde ma vie Je n'y vois que du sombre, rien de très joli J'ai voulu m'évader, j'connaissais le prix Qu'il fallait payer pour le voyage au bout d'la nuit J'y ai laissé mon âme, mon gent-ar, mes amis J'ai gagné des regrets mais jamais je n'renie Que j'suis un drôle d'oiseau, un drôle de zèbre Qui plus que la lumière, préfère les ténèbres Puisque la pénombre et les jnouns sont mes partenaires J'aurais sûrement une XXX pas m'en faire En attendant, j'me laisse aspirer Je ferme les yeux, je glisse, j'évite de penser Si je voyais l'amour, même en rêve Sûrement, j'affronterai des souffrances sans trêve Y en a qui font partie de ceux qui toujours se relèvent Qui luttent même s'ils savent que leur existence sera brève C'est pour celui qui dit qu'les paroles ressemblent à la brume Si y en a qui pensent que c'est à titre posthume Qu'on apparaît sur le vinyle, à la radio, sur une compil' P't-être qu'en matière de résurrection le démon est habile En matière d'introspection le diable est un Kabyle Qui se torture, se morfond, s'fait d'la bile Qu'a jamais eu d'chaleur, qu'a jamais eu d'espoir On oublie les cauchemars, on rêve qu'on part! Ah yeah! Je pars! pour de bon je pars Je pars! Je pars! pour de bon je pars Ah yeah! Ah yeah! Nique la khala, originale arbya XXX Ah yeah Ah yeah XXX DJ Dee Nasty Pour de bon je pars!</t>
+          <t>Ah yeah Ah yeah Pour de bon, je pars Je pars Vivre dans la honte, dans la peur du lendemain Dégoûté de vivre et d'exister chaque matin Vivre avec la folie des idées morbides Qui me rongent, m'attaquent la tronche, me bouffent le bide Complètement esseulé, j'me sens triste à dégueuler Me v'là dans un engrenage que j'ai du mal à arrêter Personne avec qui partager toutes mes souffrances chroniques J'dois me battre pour éviter un destin tragique Je crie, je hurle, déchire le silence J'suis prisonnier ici, ma voix parcourt des distances Malgré la misère, la colère passée Malgré les troubles contre lesquels j'ai dû lutter Je pense plutôt positif, regarde l'avenir Même si, comme Sur Anne, je ne vois rien venir Peut-être qu'un jour j'verrai le soleil me sourire Il me donnera la chance d'oublier le pire J'irai sous les tropiques ou n'importe où ailleurs Même si le beau temps ne garantit pas le bonheur Où que je sois sur Terre, j'serai p't-être toujours un crevard Qui oublie ses cauchemars et rêve qu'il part! Ah yeah! Je pars! Ah yeah! Je pars! Ah yeah! Je pars! Je pars! Enseveli sous les décombres d'un monde à la dérive Qui asservit les gens puis après les esquive Je prends ce qu'on me donne mais on ne me donne rien Ai-je suffisamment la rage pour me donner les moyens Il faut vraiment qu'je bouge, la liberté j'en crève J'peux plus bouger vraiment alors j'bougerai en rêve Voyager à travers le monde c'est c'que j'aurais voulu Mais pour s'offrir un voyage certains traversent la rue Je ne contrôle plus rien même pas mon imagination En plus, paraît qu'pour fuir il y a des solutions J'ai trop de spectres enfouis Qui me démangent jour et nuit Les démons de la poussière veulent être mes amis Ils me proposent des rêves en échange de ma vie Ma vie sur laquelle j'ai jamais eu d'contrôle Ma vie dans laquelle j'aurai jamais l'beau rôle Confiance en personne, j'ai perdu la foi J'porte en moi des remords comme on porte une croix Me laisse guider par les bas instincts comme les rats Tous mes réflexes humains sont si loin déjà Où que je sois sur Terre j'serai p't-être toujours un crevard Qui oublie ses cauchemars et rêve qu'il part! Ah yeah! Je pars! pour de bon je pars Ah yeah! Je pars! pour de bon je pars Je pars! Je pars! pour de bon je pars Après des années d'errance, j'regarde ma vie Je n'y vois que du sombre, rien de très joli J'ai voulu m'évader, j'connaissais le prix Qu'il fallait payer pour le voyage au bout d'la nuit J'y ai laissé mon âme, mon gent-ar, mes amis J'ai gagné des regrets mais jamais je n'renie Que j'suis un drôle d'oiseau, un drôle de zèbre Qui plus que la lumière, préfère les ténèbres Puisque la pénombre et les jnouns sont mes partenaires J'aurais sûrement une XXX pas m'en faire En attendant, j'me laisse aspirer Je ferme les yeux, je glisse, j'évite de penser Si je voyais l'amour, même en rêve Sûrement, j'affronterai des souffrances sans trêve Y en a qui font partie de ceux qui toujours se relèvent Qui luttent même s'ils savent que leur existence sera brève C'est pour celui qui dit qu'les paroles ressemblent à la brume Si y en a qui pensent que c'est à titre posthume Qu'on apparaît sur le vinyle, à la radio, sur une compil' P't-être qu'en matière de résurrection le démon est habile En matière d'introspection le diable est un Kabyle Qui se torture, se morfond, s'fait d'la bile Qu'a jamais eu d'chaleur, qu'a jamais eu d'espoir On oublie les cauchemars, on rêve qu'on part! Ah yeah! Je pars! pour de bon je pars Je pars! Je pars! pour de bon je pars Ah yeah! Ah yeah! Nique la khala, originale arbya XXX Ah yeah Ah yeah XXX DJ Dee Nasty Pour de bon je pars!</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Welcome back home, parmi les miens, ça fait du bien homie La route est longue all alone Aux quatre coins du monde j'ai répandu la nouvelle Éxécuter mes plan comme prévu, plus rien n'est pareil Tu devrais les voire comme des oufs partout où j'suis passé J'en ai vexé quelques uns qui savait pas trop ce qui se passait Impressionné par mes façons de faire Mais trop de jaloux pour les dire, ils veulent croiser le fer Fck them homie la vie est belle pour moi Chaque fois qu'ils dissent mon nom c'est plus d'oseille pour moi And I dont' give a shit so,let them puisses hate so I'm a baller, I'm a roller sur paradise XO This is for my homies, this is for my dirties This is for ly gangsters and my hustlers, one time I said This is a gangster party And how we do, we rock it like nobody Nobody baby nobody baby This is a gangster party Welcome back, it's good to see you shorty Ain't nothin' like a gangster party baby Et mes home boy sapé a la John gotti baby Des big boss la classe est flashy baby It's ugly, it's getting nasty baby We will hurt you si tu manques de respect pussy We will hurt you, on en a vu d'autres passer Qui sont tombé sous les poings, knock out punch like rocky Boy fait tes prières, bitch I'm too cocky La fidélité de ces gars me tienne a coeur, le respect C'set pas parce moi j'en suis sorti qu'eux doivent y rester A part la loi de la rue et de la protection, y a l'amitié Le coeur, on marche les coudes liés This is for my homies, this is for my dirty This is for my gangster and my hustles, one time, I said You might also like This is a gangster party And how we do, we rock it like nobody Nobody baby nobody baby This is a gangster party Welcome back, it's good to see you shorty</t>
+          <t>Welcome back home, parmi les miens, ça fait du bien homie La route est longue all alone Aux quatre coins du monde j'ai répandu la nouvelle Éxécuter mes plan comme prévu, plus rien n'est pareil Tu devrais les voire comme des oufs partout où j'suis passé J'en ai vexé quelques uns qui savait pas trop ce qui se passait Impressionné par mes façons de faire Mais trop de jaloux pour les dire, ils veulent croiser le fer Fck them homie la vie est belle pour moi Chaque fois qu'ils dissent mon nom c'est plus d'oseille pour moi And I dont' give a shit so,let them puisses hate so I'm a baller, I'm a roller sur paradise XO This is for my homies, this is for my dirties This is for ly gangsters and my hustlers, one time I said This is a gangster party And how we do, we rock it like nobody Nobody baby nobody baby This is a gangster party Welcome back, it's good to see you shorty Ain't nothin' like a gangster party baby Et mes home boy sapé a la John gotti baby Des big boss la classe est flashy baby It's ugly, it's getting nasty baby We will hurt you si tu manques de respect pussy We will hurt you, on en a vu d'autres passer Qui sont tombé sous les poings, knock out punch like rocky Boy fait tes prières, bitch I'm too cocky La fidélité de ces gars me tienne a coeur, le respect C'set pas parce moi j'en suis sorti qu'eux doivent y rester A part la loi de la rue et de la protection, y a l'amitié Le coeur, on marche les coudes liés This is for my homies, this is for my dirty This is for my gangster and my hustles, one time, I said This is a gangster party And how we do, we rock it like nobody Nobody baby nobody baby This is a gangster party Welcome back, it's good to see you shorty</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Il vient au monde quand tu cliques sur Play Sa pompe artérielle vibre à chaque fois que tu y prêtes l'oreille Il a sauté sur les genoux de Georges Clinton Taxé les basses de Bootsy et les aigus de Minnie Riperton Maîtrise comme personne Le jeu de jambes de Jackson Et le toucher de Duke Ellington Ça t'étonne pas si une bonne somme de gens Ne lui donnent pas ses quarante automnes vu ses airs de jeune homme ! Il a eu des hauts, des bas Des idéaux déjà tombés à l'eau Dans des vidéos, n'a pas trouvé les mots Pas trouvé ses mots dans un dédale de faux débats Tu l'as aimé, détesté, mixé et cloné Tellement qu'il a le corps et l'esprit sectionnés Il a fait sonner, façonner les mots de sa langue maternelle Comme les notes d'un dialecte universel Every everything, this is what I am This is what I am This is what I am Each other everywhere, this is who I be This is who I be This is who I be My soul You might also like We make the best music we can and then we hope to have everybody enjoy it We do hip-hop music other peoples record Turntables, sampler, music Music is universal We don't do old school music, we don't do new school music, we do hip-hop music Le jeune homme à vu du pays ah ! Bien évolué depuis ses années Né, un demi siècle après ses aînés Leur portrait craché Les yeux les mains, et la matière grise À cinq piges déjà le groove des JB's Dans le moove et le Show-Biz à l'adolescence Égaré, il se disperse dans tous les sens Fiesta, bella, à peine quinze ans il rêve déjà De la libido de son oncle Fela Mais il a l'âme d'Ella la force de Mandela Le cur de ses cousins du Mali et ses frères d'Angola Le slow dit de lui qu'il est speed Il a le souffle de Coltrane et Dizzy Gillespie Dee Nasty lui fait visiter l'hexagone Aujourd'hui il renaît après quelques années sous méthadone On l'a dit décédé mais il vit dans ma MPC Il est le passé le présent et le futur métissé Every everything, this is what I am This is what I am This is what I am Each other everywhere, this is who I be This is who I be This is who I be My soul H, I, P just about the music H, O, P you will remember my name H, I, P it's great music H, O, P let me tell you what it's all about Back the world of rhymes I am Africa Every sound of life Beats inside my heart In the blue of mind Spoke the word of jazz Talking to the guys And capt my soul on wax</t>
+          <t>Il vient au monde quand tu cliques sur Play Sa pompe artérielle vibre à chaque fois que tu y prêtes l'oreille Il a sauté sur les genoux de Georges Clinton Taxé les basses de Bootsy et les aigus de Minnie Riperton Maîtrise comme personne Le jeu de jambes de Jackson Et le toucher de Duke Ellington Ça t'étonne pas si une bonne somme de gens Ne lui donnent pas ses quarante automnes vu ses airs de jeune homme ! Il a eu des hauts, des bas Des idéaux déjà tombés à l'eau Dans des vidéos, n'a pas trouvé les mots Pas trouvé ses mots dans un dédale de faux débats Tu l'as aimé, détesté, mixé et cloné Tellement qu'il a le corps et l'esprit sectionnés Il a fait sonner, façonner les mots de sa langue maternelle Comme les notes d'un dialecte universel Every everything, this is what I am This is what I am This is what I am Each other everywhere, this is who I be This is who I be This is who I be My soul We make the best music we can and then we hope to have everybody enjoy it We do hip-hop music other peoples record Turntables, sampler, music Music is universal We don't do old school music, we don't do new school music, we do hip-hop music Le jeune homme à vu du pays ah ! Bien évolué depuis ses années Né, un demi siècle après ses aînés Leur portrait craché Les yeux les mains, et la matière grise À cinq piges déjà le groove des JB's Dans le moove et le Show-Biz à l'adolescence Égaré, il se disperse dans tous les sens Fiesta, bella, à peine quinze ans il rêve déjà De la libido de son oncle Fela Mais il a l'âme d'Ella la force de Mandela Le cur de ses cousins du Mali et ses frères d'Angola Le slow dit de lui qu'il est speed Il a le souffle de Coltrane et Dizzy Gillespie Dee Nasty lui fait visiter l'hexagone Aujourd'hui il renaît après quelques années sous méthadone On l'a dit décédé mais il vit dans ma MPC Il est le passé le présent et le futur métissé Every everything, this is what I am This is what I am This is what I am Each other everywhere, this is who I be This is who I be This is who I be My soul H, I, P just about the music H, O, P you will remember my name H, I, P it's great music H, O, P let me tell you what it's all about Back the world of rhymes I am Africa Every sound of life Beats inside my heart In the blue of mind Spoke the word of jazz Talking to the guys And capt my soul on wax</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>x2 Partouze old-chool Swimming-pool party x2 Mets ton pattes d'eph' Quand le groupe Raid Def Jam J'paye mon hommage, au micro j'fais des dommages Remets ton pattes d'eph' Quand le groupe Raid Def Jam Je jamme sur des defs et tape des bufs, des fakes, des fucks Pas d'keuf, non, y'a Funky Stuff Cour de récré, smurf, défis Parie comme au turf Woofers, grattes trash et beats bien ruff Du funk, dans un esprit punk Mes rimes s'abattent, sur un vieux riff de Black Sabbath Electro, des graffs pourris sur les métros, mes racines Comme Muggs, j'me saoule puis j'assassine J'te bassine et direct t'es croque Mais qu'est-ce qui t'choque ? 15 kilos d'chaînes en toc, une boucle de hard-rock Un son live, de mon b-boy's band Non mais là, faut trop qu'j'me pécho un survet' 3 bandes trop caillera Un MC, avec une collec' d'Adidas Run-DMC Bouts en plastique, j'les astiquent, pour qu'elles restent bien élastiques J'imprime un flow fantastique, un futur classique You might also like J'en lâche une pour les vieux d'la vieille, les vandales qu'on retourné Paris Ceux qu'aillaient au Globo dans les party J'y étais pas, j'étais trop p'tit Mais putain y circulait tellement d'histoires Qu'j'ai voulu faire la même tous les soirs Avec mes potes en classe, on bitait rien à l'anglais Mais on chantait quand même, ça nous plaisait Même si on comprenait pas encore, l'message d'The Message L'feeling passait déjà à notre âge Don't push me, yeah yo, come on, 'cause I'm close Tout ça, c'est tout a fait c'que j'suis J'renierais pas et y'a eu d'autres choses aussi Mais j'les placent loin derrière, et fais d'ma zique, ma mère nourricière Pour l'caractère, les émotions, les sentiments J'remercie mes pairs très sincèrement Et pour la old-school, qu'est-ce qui coule ? C'est du Mr Xavier x2 Mets ton pattes d'eph' Quand le groupe Raid Def Jam J'paye mon hommage, au micro j'fais des dommages Remets ton pattes d'eph' Quand le groupe Raid Def Jam Vieux sac US usé, logo ACDC Premier tag posé sur table d'écolier Fan des hardos d'époque, je sniffe de la colle UHU Avec mon nez Cléopâtre 84, collec' de badges, groupes trop violents pour mon âge V'la mon école des fans dont j'fais l'hommage 10 ans plus tard, j'comprend c'qu'est une guitare saturée Un lyrics raturé, un beat old-chool trituré Retour aux seventies C'est pire que Seven quand j'tise Comme Patrick Topaloff, dis-moi où est ma ch'mise grise J'm'agite comme un electron, 78, console Vectron Rompu, aux exercices phalliques Le Svink revient, dans un style plus métallique qu'un solo d'Slash Mon crew s'lâche, DJ Clash, je r'pars en GrandBaster Flash Partouze old-chool Swimming-pool party L'autiste déambule pull en laine carré de cuir Pour séduire à la Big Daddy Canne en crystal à la main, Clarks bordeaux aux pieds Verre d'Saint-Émilion 86 ??? Pas d'problème, j'continue M'promène, H.I.P. H.O.P Les saucisses du banquet, ???, pendentif en bois qu'est ce qu'il y a? Le défilé est lancé et en 1,2,3 phases craque ses Nastase, pas d'bol Moi j'réajuste mon ??? x2 Mets ton pattes d'eph' Quand le groupe Raid Def Jam J'paye mon hommage, au micro j'fais des dommages Remets ton pattes d'eph' Quand le groupe Raid Def Jam J'ai trop d'styles, donc j'en fous un, fussent-ils bourrins J'reste subtil, rutile, No sleep till Brooklyn D'New-York à Paris La source est jamais tarie, juste branche l'Atari Je-je-ne-ne-veux-veux-pas-pas, de textes nazes alors laisse faire les PaRappa La bite moulée dans un survet' Kappa, flight jacket Japa Et même si t'as pas, toutes les références Inclines-toi d'vant la old-school, fais ta révérence Ma préférence à moi c'est ???, 3 accords d'gratte hardcore J'm'en gratte si t'es pas d'accord J'Electric Boogie, avec les bons tuyaux d'Huggy L'beat lourd et l'jean velours à la Starsky Zulu, Afrika Bambaataa, look bâtard, shoes Bata ??? J'écoute Street Dance sur mon mange-disque, orange, année 70 Hit Break Machine année 80 Le samedi soir d'vant Sex Machine Comme Philippe, j' manuvre, je cherche le chef-d'oeuvre Du classique rock, kick d'Herbie Hancock, j'm'abreuve, j'oeuvre pour mes voisins Un Scorpions enchaîné avec un Beastie Brass Monkey Sur mes AéroStansmith, j'me r'fait l'clip Walk This Way Mets ton pattes d'eph' Quand le groupe Raid Def Jam J'paye mon hommage, au micro j'fais des dommages Remets ton pattes d'eph' Quand le groupe Raid Def Jam Mets ton pattes d'eph' Quand le groupe Raid Def Jam J'paye mon hommage, au micro j'fais des dommages Hey yo, Nikus ! J'vais r'faire du Sidney nez à nez avec Sid Vicious en train d'breaker en Americana quai d'la Rapée J'ai échappé à c'look chaîne en roro Aussi lourde que c'beat avec du gros rock Bottes croco, look macro, Grandmaster Flash éléctro J'étais d'jà accro x4 Mets ton pattes d'eph' Quand le groupe Raid Def Jam J'paye mon hommage, au micro j'fais des dommages Remets ton pattes d'eph' Quand le groupe Raid Def Jam</t>
+          <t>x2 Partouze old-chool Swimming-pool party x2 Mets ton pattes d'eph' Quand le groupe Raid Def Jam J'paye mon hommage, au micro j'fais des dommages Remets ton pattes d'eph' Quand le groupe Raid Def Jam Je jamme sur des defs et tape des bufs, des fakes, des fucks Pas d'keuf, non, y'a Funky Stuff Cour de récré, smurf, défis Parie comme au turf Woofers, grattes trash et beats bien ruff Du funk, dans un esprit punk Mes rimes s'abattent, sur un vieux riff de Black Sabbath Electro, des graffs pourris sur les métros, mes racines Comme Muggs, j'me saoule puis j'assassine J'te bassine et direct t'es croque Mais qu'est-ce qui t'choque ? 15 kilos d'chaînes en toc, une boucle de hard-rock Un son live, de mon b-boy's band Non mais là, faut trop qu'j'me pécho un survet' 3 bandes trop caillera Un MC, avec une collec' d'Adidas Run-DMC Bouts en plastique, j'les astiquent, pour qu'elles restent bien élastiques J'imprime un flow fantastique, un futur classique J'en lâche une pour les vieux d'la vieille, les vandales qu'on retourné Paris Ceux qu'aillaient au Globo dans les party J'y étais pas, j'étais trop p'tit Mais putain y circulait tellement d'histoires Qu'j'ai voulu faire la même tous les soirs Avec mes potes en classe, on bitait rien à l'anglais Mais on chantait quand même, ça nous plaisait Même si on comprenait pas encore, l'message d'The Message L'feeling passait déjà à notre âge Don't push me, yeah yo, come on, 'cause I'm close Tout ça, c'est tout a fait c'que j'suis J'renierais pas et y'a eu d'autres choses aussi Mais j'les placent loin derrière, et fais d'ma zique, ma mère nourricière Pour l'caractère, les émotions, les sentiments J'remercie mes pairs très sincèrement Et pour la old-school, qu'est-ce qui coule ? C'est du Mr Xavier x2 Mets ton pattes d'eph' Quand le groupe Raid Def Jam J'paye mon hommage, au micro j'fais des dommages Remets ton pattes d'eph' Quand le groupe Raid Def Jam Vieux sac US usé, logo ACDC Premier tag posé sur table d'écolier Fan des hardos d'époque, je sniffe de la colle UHU Avec mon nez Cléopâtre 84, collec' de badges, groupes trop violents pour mon âge V'la mon école des fans dont j'fais l'hommage 10 ans plus tard, j'comprend c'qu'est une guitare saturée Un lyrics raturé, un beat old-chool trituré Retour aux seventies C'est pire que Seven quand j'tise Comme Patrick Topaloff, dis-moi où est ma ch'mise grise J'm'agite comme un electron, 78, console Vectron Rompu, aux exercices phalliques Le Svink revient, dans un style plus métallique qu'un solo d'Slash Mon crew s'lâche, DJ Clash, je r'pars en GrandBaster Flash Partouze old-chool Swimming-pool party L'autiste déambule pull en laine carré de cuir Pour séduire à la Big Daddy Canne en crystal à la main, Clarks bordeaux aux pieds Verre d'Saint-Émilion 86 ??? Pas d'problème, j'continue M'promène, H.I.P. H.O.P Les saucisses du banquet, ???, pendentif en bois qu'est ce qu'il y a? Le défilé est lancé et en 1,2,3 phases craque ses Nastase, pas d'bol Moi j'réajuste mon ??? x2 Mets ton pattes d'eph' Quand le groupe Raid Def Jam J'paye mon hommage, au micro j'fais des dommages Remets ton pattes d'eph' Quand le groupe Raid Def Jam J'ai trop d'styles, donc j'en fous un, fussent-ils bourrins J'reste subtil, rutile, No sleep till Brooklyn D'New-York à Paris La source est jamais tarie, juste branche l'Atari Je-je-ne-ne-veux-veux-pas-pas, de textes nazes alors laisse faire les PaRappa La bite moulée dans un survet' Kappa, flight jacket Japa Et même si t'as pas, toutes les références Inclines-toi d'vant la old-school, fais ta révérence Ma préférence à moi c'est ???, 3 accords d'gratte hardcore J'm'en gratte si t'es pas d'accord J'Electric Boogie, avec les bons tuyaux d'Huggy L'beat lourd et l'jean velours à la Starsky Zulu, Afrika Bambaataa, look bâtard, shoes Bata ??? J'écoute Street Dance sur mon mange-disque, orange, année 70 Hit Break Machine année 80 Le samedi soir d'vant Sex Machine Comme Philippe, j' manuvre, je cherche le chef-d'oeuvre Du classique rock, kick d'Herbie Hancock, j'm'abreuve, j'oeuvre pour mes voisins Un Scorpions enchaîné avec un Beastie Brass Monkey Sur mes AéroStansmith, j'me r'fait l'clip Walk This Way Mets ton pattes d'eph' Quand le groupe Raid Def Jam J'paye mon hommage, au micro j'fais des dommages Remets ton pattes d'eph' Quand le groupe Raid Def Jam Mets ton pattes d'eph' Quand le groupe Raid Def Jam J'paye mon hommage, au micro j'fais des dommages Hey yo, Nikus ! J'vais r'faire du Sidney nez à nez avec Sid Vicious en train d'breaker en Americana quai d'la Rapée J'ai échappé à c'look chaîne en roro Aussi lourde que c'beat avec du gros rock Bottes croco, look macro, Grandmaster Flash éléctro J'étais d'jà accro x4 Mets ton pattes d'eph' Quand le groupe Raid Def Jam J'paye mon hommage, au micro j'fais des dommages Remets ton pattes d'eph' Quand le groupe Raid Def Jam</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Il vient au monde quand tu cliques sur Play Sa pompe artérielle vibre à chaque fois que tu y prêtes l'oreille Il a sauté sur les genoux de Georges Clinton Taxé les basses de Bootsy et les aigus de Minnie Riperton Maîtrise comme personne Le jeu de jambes de Jackson Et le toucher de Duke Ellington Ça t'étonne pas si une bonne somme de gens Ne lui donnent pas ses quarante automnes vu ses airs de jeune homme ! Il a eu des hauts, des bas Des idéaux déjà tombés à l'eau Dans des vidéos, n'a pas trouvé les mots Pas trouvé ses mots dans un dédale de faux débats Tu l'as aimé, détesté, mixé et cloné Tellement qu'il a le corps et l'esprit sectionnés Il a fait sonner, façonner les mots de sa langue maternelle Comme les notes d'un dialecte universel Every everything, this is what I am This is what I am This is what I am Each other everywhere, this is who I be This is who I be This is who I be My soul You might also like We make the best music we can and then we hope to have everybody enjoy it We do hip-hop music other peoples record Turntables, sampler, music Music is universal We don't do old school music, we don't do new school music, we do hip-hop music Le jeune homme à vu du pays ah ! Bien évolué depuis ses années Né, un demi siècle après ses aînés Leur portrait craché Les yeux les mains, et la matière grise À cinq piges déjà le groove des JB's Dans le moove et le Show-Biz à l'adolescence Égaré, il se disperse dans tous les sens Fiesta, bella, à peine quinze ans il rêve déjà De la libido de son oncle Fela Mais il a l'âme d'Ella la force de Mandela Le cur de ses cousins du Mali et ses frères d'Angola Le slow dit de lui qu'il est speed Il a le souffle de Coltrane et Dizzy Gillespie Dee Nasty lui fait visiter l'hexagone Aujourd'hui il renaît après quelques années sous méthadone On l'a dit décédé mais il vit dans ma MPC Il est le passé le présent et le futur métissé Every everything, this is what I am This is what I am This is what I am Each other everywhere, this is who I be This is who I be This is who I be My soul H, I, P just about the music H, O, P you will remember my name H, I, P it's great music H, O, P let me tell you what it's all about Back the world of rhymes I am Africa Every sound of life Beats inside my heart In the blue of mind Spoke the word of jazz Talking to the guys And capt my soul on wax</t>
+          <t>Il vient au monde quand tu cliques sur Play Sa pompe artérielle vibre à chaque fois que tu y prêtes l'oreille Il a sauté sur les genoux de Georges Clinton Taxé les basses de Bootsy et les aigus de Minnie Riperton Maîtrise comme personne Le jeu de jambes de Jackson Et le toucher de Duke Ellington Ça t'étonne pas si une bonne somme de gens Ne lui donnent pas ses quarante automnes vu ses airs de jeune homme ! Il a eu des hauts, des bas Des idéaux déjà tombés à l'eau Dans des vidéos, n'a pas trouvé les mots Pas trouvé ses mots dans un dédale de faux débats Tu l'as aimé, détesté, mixé et cloné Tellement qu'il a le corps et l'esprit sectionnés Il a fait sonner, façonner les mots de sa langue maternelle Comme les notes d'un dialecte universel Every everything, this is what I am This is what I am This is what I am Each other everywhere, this is who I be This is who I be This is who I be My soul We make the best music we can and then we hope to have everybody enjoy it We do hip-hop music other peoples record Turntables, sampler, music Music is universal We don't do old school music, we don't do new school music, we do hip-hop music Le jeune homme à vu du pays ah ! Bien évolué depuis ses années Né, un demi siècle après ses aînés Leur portrait craché Les yeux les mains, et la matière grise À cinq piges déjà le groove des JB's Dans le moove et le Show-Biz à l'adolescence Égaré, il se disperse dans tous les sens Fiesta, bella, à peine quinze ans il rêve déjà De la libido de son oncle Fela Mais il a l'âme d'Ella la force de Mandela Le cur de ses cousins du Mali et ses frères d'Angola Le slow dit de lui qu'il est speed Il a le souffle de Coltrane et Dizzy Gillespie Dee Nasty lui fait visiter l'hexagone Aujourd'hui il renaît après quelques années sous méthadone On l'a dit décédé mais il vit dans ma MPC Il est le passé le présent et le futur métissé Every everything, this is what I am This is what I am This is what I am Each other everywhere, this is who I be This is who I be This is who I be My soul H, I, P just about the music H, O, P you will remember my name H, I, P it's great music H, O, P let me tell you what it's all about Back the world of rhymes I am Africa Every sound of life Beats inside my heart In the blue of mind Spoke the word of jazz Talking to the guys And capt my soul on wax</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>J'suis né là où l'soleil se couche, pas loin du Pont d'Sèvres On en revient toujours à ses bases, c'est comme écrit dans l'ciel J'viens d'une époque où j'kiffais les flops sur les murs de mon bloc Où même Pop Dan gravait sur ces pavés son code Wop, Obi-Wan, Zox', Meskin et puis les autres Des UTP au Boulogne possee, ma ville sentait New York J'me souviens des après-midi à kicker chez Ol' Tenz' Et rapper mes textes pourris sur ses premières mixtapes Regarde-moi bien, j'aime pas la nostalgie Mais quand mon microphone est branché, j'ai des névralgies Les après-midi dans les bacs de la Fnac ou au XXX Des MJC aux fêtes de quartier, le rap imprégnait mon lycée Ma cour c'était ça, Lunatic et les Sages Po' Moi j'kicke pour ma clique car j'ai le style et le plein d'flow Rocca, Daddy, Kéké Raphton et Lum's Gallegos, Chimiste, Brian m'ont donné le son ghetto J'rappe pour mon ghetto, ma zik vient du ghetto J'kicke et mon style sent les briques de mon ghetto Le hip-hop est mon royaume et fait s'évader du ghetto Ma zik sent la street quand doit transpirer mon ghetto J'compte plus les jours à essayer d'rapper Mes textes dans la mesure semblaient mal taillés Egosyst rappait comme personne rappait Le Coup d'État Phonique, ma première clique, frappait Zox' était mon modèle, Odnhok mon nom de baptême Lionel D, Dee Nasty, 101.5 mon totem Le Dee Nastyle, Nova m'parlait dans mon walkman Les freestyles, XXX J'ai grandi la nuit, entrecoupé par le sommeil Des textes plein les oreilles à forger mes rimes au Wu-Tang J'respectais l'Architecte DJ Logilo et XXX, Cut Killer et son funk Des soirées pleines, sans stress quand s'pointaient les meufs La tête rasée à la Onyx, j'étais dingue comme le cur des lyrics J'vais pas m'la jouer façon nostalgique Mon rap est tourné vers le futur mais reste authentique Come on You might also like J'rappe pour mon ghetto, ma zik vient du ghetto J'kicke et mon style sent les briques de mon ghetto Le hip-hop est mon royaume et fait s'évader du ghetto Ma zik sent la street quand doit transpirer mon ghetto Dans toute les émissions j'ai brûlé un mic et mis des frissons Joey Starr, Naughty et Spank mettaient la pression Du hip-hop j'ai connu l'enfance par obstination J'ai marché, j'ai nagé, traversé ta génération Mon rap sent Awer et Fab, Kozi et Clyde Mon style vient d'Paris, j'claque des textes bad De Marseille à Bordeaux, mon sac est plein d'vibes En moi, vois un Monsieur hip-hop ou Rapline Dédicaces à Hollis Carlton Yeah, K.O.H.N.D., pour Sidney Toujours comme ça qu'j'fais Ha ha J'ai usé mes Nike et mes Timberland J'ai laissé des traces sur le bout des lèvres Mes textes ont du flow pour que l'âme s'élève Ma peau sent le hip-hop de mon ADN</t>
+          <t>J'suis né là où l'soleil se couche, pas loin du Pont d'Sèvres On en revient toujours à ses bases, c'est comme écrit dans l'ciel J'viens d'une époque où j'kiffais les flops sur les murs de mon bloc Où même Pop Dan gravait sur ces pavés son code Wop, Obi-Wan, Zox', Meskin et puis les autres Des UTP au Boulogne possee, ma ville sentait New York J'me souviens des après-midi à kicker chez Ol' Tenz' Et rapper mes textes pourris sur ses premières mixtapes Regarde-moi bien, j'aime pas la nostalgie Mais quand mon microphone est branché, j'ai des névralgies Les après-midi dans les bacs de la Fnac ou au XXX Des MJC aux fêtes de quartier, le rap imprégnait mon lycée Ma cour c'était ça, Lunatic et les Sages Po' Moi j'kicke pour ma clique car j'ai le style et le plein d'flow Rocca, Daddy, Kéké Raphton et Lum's Gallegos, Chimiste, Brian m'ont donné le son ghetto J'rappe pour mon ghetto, ma zik vient du ghetto J'kicke et mon style sent les briques de mon ghetto Le hip-hop est mon royaume et fait s'évader du ghetto Ma zik sent la street quand doit transpirer mon ghetto J'compte plus les jours à essayer d'rapper Mes textes dans la mesure semblaient mal taillés Egosyst rappait comme personne rappait Le Coup d'État Phonique, ma première clique, frappait Zox' était mon modèle, Odnhok mon nom de baptême Lionel D, Dee Nasty, 101.5 mon totem Le Dee Nastyle, Nova m'parlait dans mon walkman Les freestyles, XXX J'ai grandi la nuit, entrecoupé par le sommeil Des textes plein les oreilles à forger mes rimes au Wu-Tang J'respectais l'Architecte DJ Logilo et XXX, Cut Killer et son funk Des soirées pleines, sans stress quand s'pointaient les meufs La tête rasée à la Onyx, j'étais dingue comme le cur des lyrics J'vais pas m'la jouer façon nostalgique Mon rap est tourné vers le futur mais reste authentique Come on J'rappe pour mon ghetto, ma zik vient du ghetto J'kicke et mon style sent les briques de mon ghetto Le hip-hop est mon royaume et fait s'évader du ghetto Ma zik sent la street quand doit transpirer mon ghetto Dans toute les émissions j'ai brûlé un mic et mis des frissons Joey Starr, Naughty et Spank mettaient la pression Du hip-hop j'ai connu l'enfance par obstination J'ai marché, j'ai nagé, traversé ta génération Mon rap sent Awer et Fab, Kozi et Clyde Mon style vient d'Paris, j'claque des textes bad De Marseille à Bordeaux, mon sac est plein d'vibes En moi, vois un Monsieur hip-hop ou Rapline Dédicaces à Hollis Carlton Yeah, K.O.H.N.D., pour Sidney Toujours comme ça qu'j'fais Ha ha J'ai usé mes Nike et mes Timberland J'ai laissé des traces sur le bout des lèvres Mes textes ont du flow pour que l'âme s'élève Ma peau sent le hip-hop de mon ADN</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Yeah Redonner du respect à la culture, voilà à quoi le biz sert Le rap est sorti des abîmes y a un demi siècle 50 ans le hip-hop a, qui avait prévu une telle vague ? De Grandmaster Flash à Big Poppa Sans blague, rien n'avait été inventé de semblable Depuis l'herbe verte, un arbre aux milliers de branchages Dans ma chambre chaque nuit j'écoutais, trouvais ça sensas Yo MTV Rap city, Dee Nasty le dimanche soir Lionel D paix à son âm, champion de l'impro Zoxea aussi maîtrisait cet art mpoignant son micro Conversations débridées sur qui avait la palme d'or Cinéma qu'on faisait récitant les phases d'autres, place haute N.Y.C était l'exemple, premiers textes, premiers samples Sages Poètes de la Rue représente représente C'est toujours mon moyen de casser la croûte Et pas mal d'mcs me saluent pour avoir pavé la route C'est risqué d'essayer de faire mon best-of C'est se condamner soi-même au bûcher, j'en ai de belles strophes Je l'ai souvent dit la démesure et l'exploit m'escortent Je laisse une empreinte sûre Je ne serai pas de ceux que l'histoire escroque Waouh hum.... c'est l'explosion Les choses arrivent pour une raison Les choses arrivent pour une raison Conséquences et causes Laissons là les théories, le bon sens s'impose Voilà j'ai des comptes à régler, de 12 à 24 Répétés l'été dernier mais réservés en cas de clash Bien conservés, attention au niveau Rien ne sait rester plus frais que lui Je crois depuis l'invention des frigos Ce noir l'a fait s'emballer la presse Et c'est le jeu il ne reste pas là à travailler la sieste, même un peu Il a appris sans la notice, un novice Chaque jour était le moment propice Seule son ombre serait son complice J'ai annoncé la nouvelle saison tel un solstice Debout plut tôt, couché plus tard Un peu comme fait un sportif Regarde, j'ai crié puis prouve ma théorie du groove explosive Le fait d'avoir des sosies partout plausibles Preuve vivante qu'on peut accomplir l'impossible Je n'en reviens toujours pas pour moi Croire en ma propre gloire me serait nocif You might also likeYeah! Regarde un peu de loin Tout le monde se sent invincible avec une arme à feu au poing L'homicide est suicide, parlons peu mais bien Balle une fois tirée n'aura pas de freins La vie, la vraie n'est pas un film, tu ne vois pas la fin On peut voir, prévoir comment les guerres ou les romances commencent Mais l'issue d'une idylle ou d'un affrontement reste mystérieuse à tous ! Époustouflant le destin défie la logique Et gagne comme Barack en campagne, comme notre premier album Boulogne ! Reconnue comme une plateforme Que des mcs légendaires, avant nous n'étions personne Prenez du recul et contemplez le taf Vous verrez pourquoi pour moi ils restent à portée de baffes Les rappeurs, soyez témoins, voyez comment l'on forme un classique Je n'essai pas de vendre du chloroforme dans du plastique Et cela ne tombe pas du ciel, c'est plutôt l'inverse Là j'avance direction Pluton, le studio ma navette</t>
+          <t>Yeah Redonner du respect à la culture, voilà à quoi le biz sert Le rap est sorti des abîmes y a un demi siècle 50 ans le hip-hop a, qui avait prévu une telle vague ? De Grandmaster Flash à Big Poppa Sans blague, rien n'avait été inventé de semblable Depuis l'herbe verte, un arbre aux milliers de branchages Dans ma chambre chaque nuit j'écoutais, trouvais ça sensas Yo MTV Rap city, Dee Nasty le dimanche soir Lionel D paix à son âm, champion de l'impro Zoxea aussi maîtrisait cet art mpoignant son micro Conversations débridées sur qui avait la palme d'or Cinéma qu'on faisait récitant les phases d'autres, place haute N.Y.C était l'exemple, premiers textes, premiers samples Sages Poètes de la Rue représente représente C'est toujours mon moyen de casser la croûte Et pas mal d'mcs me saluent pour avoir pavé la route C'est risqué d'essayer de faire mon best-of C'est se condamner soi-même au bûcher, j'en ai de belles strophes Je l'ai souvent dit la démesure et l'exploit m'escortent Je laisse une empreinte sûre Je ne serai pas de ceux que l'histoire escroque Waouh hum.... c'est l'explosion Les choses arrivent pour une raison Les choses arrivent pour une raison Conséquences et causes Laissons là les théories, le bon sens s'impose Voilà j'ai des comptes à régler, de 12 à 24 Répétés l'été dernier mais réservés en cas de clash Bien conservés, attention au niveau Rien ne sait rester plus frais que lui Je crois depuis l'invention des frigos Ce noir l'a fait s'emballer la presse Et c'est le jeu il ne reste pas là à travailler la sieste, même un peu Il a appris sans la notice, un novice Chaque jour était le moment propice Seule son ombre serait son complice J'ai annoncé la nouvelle saison tel un solstice Debout plut tôt, couché plus tard Un peu comme fait un sportif Regarde, j'ai crié puis prouve ma théorie du groove explosive Le fait d'avoir des sosies partout plausibles Preuve vivante qu'on peut accomplir l'impossible Je n'en reviens toujours pas pour moi Croire en ma propre gloire me serait nocif Yeah! Regarde un peu de loin Tout le monde se sent invincible avec une arme à feu au poing L'homicide est suicide, parlons peu mais bien Balle une fois tirée n'aura pas de freins La vie, la vraie n'est pas un film, tu ne vois pas la fin On peut voir, prévoir comment les guerres ou les romances commencent Mais l'issue d'une idylle ou d'un affrontement reste mystérieuse à tous ! Époustouflant le destin défie la logique Et gagne comme Barack en campagne, comme notre premier album Boulogne ! Reconnue comme une plateforme Que des mcs légendaires, avant nous n'étions personne Prenez du recul et contemplez le taf Vous verrez pourquoi pour moi ils restent à portée de baffes Les rappeurs, soyez témoins, voyez comment l'on forme un classique Je n'essai pas de vendre du chloroforme dans du plastique Et cela ne tombe pas du ciel, c'est plutôt l'inverse Là j'avance direction Pluton, le studio ma navette</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Paname city rappin', c'est le Paname city rap Paname city rappin', c'est le Paname city rap Paname, Paname, ô ville de rêve Mais tout à Paris n'est pas ce qu'il parait Tu vas perdre la tête, te retrouver largué Si tu ne suis pas le tempo de la cité C'est trop, il y a beaucoup trop de gens C'est trop C'est trop, il y a beaucoup trop de gens C'est trop Paname City, c'est là où je vis Et je peux te le dire que je ne connais pas l'ennuie Qu'il manque seulement du soleil dans ma vie Que je connais bien les galères et les soucis Paname City, faut pas te tromper Faut surtout pas croire que c'est le paradis Tu vas perdre la tête, te retrouver largué Si tu ne suis pas le tempo de la cité Le tempo ici, il est vraiment speedy Bien sûr beaucoup moins qu'à New-York City Mais ici aussi, c'est vraiment très funky Funky situation, c'est notre vie Au coin des rues, il y a des frenchies zoulous Et sur le funky zoulou beat on danse comme des fous Il y a quoi de s'éclater, dans cette grande cité La grisaille est colorée, la merde oubliée You might also like Paname, Paname, ô ville de rêve Mais tout à Paris n'est pas ce qu'il parait Tu vas perdre la tête, te retrouver largué Si tu ne suis pas le tempo de la cité C'est trop, il y a beaucoup trop de gens C'est trop C'est trop, il y a beaucoup trop de gens C'est trop Depuis qu'il y a le hip hop, il y a la paix dans ma cité Il y a presque plus de bastons il y en avait marre de se fritter Maintenant ce qui est important c'est de savoir danser De tourner sur la tête, d'être le meilleur à breaker C'est la seule manière de sortir de sa cage De maîtriser sa rage, oublier le chômage Trouver la paix dans la musique même si elle est synthétique C'est notre seul soutien dans ce monde atomique Tu n'as plus d'horizon et tu perds tes illusions Car autour de toi, tu ne vois que du béton Tu te sens enfermé et tu veux t'échapper Ce que tu as besoin, c'est ta liberté Ta liberté de pouvoir t'exprimer Et aussi celle de ne plus te faire agresser Papier, Papier, contrôle d'identité Pour ton look d'immigré, ta façon de penser Paname, Paname, ô ville de rêve Mais tout à Paris n'est pas ce qu'il parait Tu vas perdre la tête, te retrouver largué Si tu ne suis pas le tempo de la cité C'est trop, il y a beaucoup trop de gens C'est trop C'est trop, il y a beaucoup trop de gens C'est trop Dans mon quartier, il y a de quoi flipper Ici, ça sent la zone à plein nez Il y a des dealers partout dans la rue Celui qui est déjà largué, il n'en peut plus Te-shi, bedo, tout ce que tu veux Te shooter dans la rue, ici tu le peux Un keum qui me dit que je suis en train de zoner Je n'arrive vraiment plus à assurer De galère en galère, c'est vraiment re-du Je suis à côté de mes pompes et j'en sors plus Le speed, la poudre et les galères Si je ne fais pas gaffe, je peux directement faire Ce dont j'ai besoin, c'est de décompresser Et de quelque chose pour ne plus glander Heureusement, j'ai ma télé pour me faire enlever J'y vois ce que la vie devrait être Paname, Paname, ô ville de rêve Mais tout à Paris n'est pas ce qu'il parait Tu vas perdre la tête, te retrouver largué Si tu ne suis pas le tempo de la cité Quand je sors dehors, je suis réconforté La réalité n'a pas du tout changé Et la jungle urbaine, la foule de flippés Dans le métropolitain, tous compressés Et toutes ces caisses dans la rue, je ne peux plus respirer Je crois toujours qu'un jour, ça va exploser Paname city, c'est là où je vis Et je peux te dire que je ne connais pas l'ennui Paname, Paname, ô ville de rêve Mais tout à Paris n'est pas ce qu'il parait Tu vas perdre la tête, te retrouver largué Si tu ne suis pas le tempo de la cité C'est trop, il y a beaucoup trop de gens C'est trop C'est trop, il y a beaucoup trop de gens C'est trop1</t>
+          <t>Paname city rappin', c'est le Paname city rap Paname city rappin', c'est le Paname city rap Paname, Paname, ô ville de rêve Mais tout à Paris n'est pas ce qu'il parait Tu vas perdre la tête, te retrouver largué Si tu ne suis pas le tempo de la cité C'est trop, il y a beaucoup trop de gens C'est trop C'est trop, il y a beaucoup trop de gens C'est trop Paname City, c'est là où je vis Et je peux te le dire que je ne connais pas l'ennuie Qu'il manque seulement du soleil dans ma vie Que je connais bien les galères et les soucis Paname City, faut pas te tromper Faut surtout pas croire que c'est le paradis Tu vas perdre la tête, te retrouver largué Si tu ne suis pas le tempo de la cité Le tempo ici, il est vraiment speedy Bien sûr beaucoup moins qu'à New-York City Mais ici aussi, c'est vraiment très funky Funky situation, c'est notre vie Au coin des rues, il y a des frenchies zoulous Et sur le funky zoulou beat on danse comme des fous Il y a quoi de s'éclater, dans cette grande cité La grisaille est colorée, la merde oubliée Paname, Paname, ô ville de rêve Mais tout à Paris n'est pas ce qu'il parait Tu vas perdre la tête, te retrouver largué Si tu ne suis pas le tempo de la cité C'est trop, il y a beaucoup trop de gens C'est trop C'est trop, il y a beaucoup trop de gens C'est trop Depuis qu'il y a le hip hop, il y a la paix dans ma cité Il y a presque plus de bastons il y en avait marre de se fritter Maintenant ce qui est important c'est de savoir danser De tourner sur la tête, d'être le meilleur à breaker C'est la seule manière de sortir de sa cage De maîtriser sa rage, oublier le chômage Trouver la paix dans la musique même si elle est synthétique C'est notre seul soutien dans ce monde atomique Tu n'as plus d'horizon et tu perds tes illusions Car autour de toi, tu ne vois que du béton Tu te sens enfermé et tu veux t'échapper Ce que tu as besoin, c'est ta liberté Ta liberté de pouvoir t'exprimer Et aussi celle de ne plus te faire agresser Papier, Papier, contrôle d'identité Pour ton look d'immigré, ta façon de penser Paname, Paname, ô ville de rêve Mais tout à Paris n'est pas ce qu'il parait Tu vas perdre la tête, te retrouver largué Si tu ne suis pas le tempo de la cité C'est trop, il y a beaucoup trop de gens C'est trop C'est trop, il y a beaucoup trop de gens C'est trop Dans mon quartier, il y a de quoi flipper Ici, ça sent la zone à plein nez Il y a des dealers partout dans la rue Celui qui est déjà largué, il n'en peut plus Te-shi, bedo, tout ce que tu veux Te shooter dans la rue, ici tu le peux Un keum qui me dit que je suis en train de zoner Je n'arrive vraiment plus à assurer De galère en galère, c'est vraiment re-du Je suis à côté de mes pompes et j'en sors plus Le speed, la poudre et les galères Si je ne fais pas gaffe, je peux directement faire Ce dont j'ai besoin, c'est de décompresser Et de quelque chose pour ne plus glander Heureusement, j'ai ma télé pour me faire enlever J'y vois ce que la vie devrait être Paname, Paname, ô ville de rêve Mais tout à Paris n'est pas ce qu'il parait Tu vas perdre la tête, te retrouver largué Si tu ne suis pas le tempo de la cité Quand je sors dehors, je suis réconforté La réalité n'a pas du tout changé Et la jungle urbaine, la foule de flippés Dans le métropolitain, tous compressés Et toutes ces caisses dans la rue, je ne peux plus respirer Je crois toujours qu'un jour, ça va exploser Paname city, c'est là où je vis Et je peux te dire que je ne connais pas l'ennui Paname, Paname, ô ville de rêve Mais tout à Paris n'est pas ce qu'il parait Tu vas perdre la tête, te retrouver largué Si tu ne suis pas le tempo de la cité C'est trop, il y a beaucoup trop de gens C'est trop C'est trop, il y a beaucoup trop de gens C'est trop1</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DJ Cross-y, La Secte Phonétik Yeah, message pour toute la communauté hip-hop, peu importe la discipline, et peu importe l'époque, c'est toujours peace, love, unity and having fun, qu'tu sois militant activiste ou simple fan... Yeah, on a tous le même but en tête, et ce dès l'début d'l'enquête Rechercher un maximum de fun et, moi, j'vote pour l'entraide Laisse les 'tassiers-put' entre elles, celles qui se disputent, qu'engrainent Ou qui discutent, c'est pas celles-ci avec qui tu traînes Car la hip-hop attitude est reine, haute altitude, ULM L'habitude faut qu'tu la prennes, peace, love et unity Avoir du fun, tuer l'règne du mauvais esprit Et, le plus dur est même, comme moi, viens poser des seize 'de-spee' Pour capturer l'rêve, celui décrit dans les magasines Et, même si ma lecture est brève, depuis '96, j'apprécie Sans même effectuer d'trêve, ma culture est ainsi faite D'peinture et d'break, d'un MC avec un flow bien précis Juste entouré d'mecs qui secouent la tête sans être imbéciles Tu t'reconnais p't-être parmi eux, eh bien sache que moi aussi J'ai des mots pour les posses, et mille possibilités d'flow Qui s'négocient, mais reste hip-hop tandis que, toi, tu gossipes, nous c'est... Peace, love et unity pour la community Pour ceux qui, avec le hip-hop, ont connu l'idylle B-boy, graffiti, beatbox, un tas d'vinyles Hip-hop et R'n'b, mille prod', de quoi écrire Peace, love, unity pour toute la community Pour ceux qui, avec le hip-hop, ont connu l'idylle B-boy, graffiti, beatbox, un tas d'vinyles Hip-hop et R'n'b, mille prod', mille prod' You might also like Ami des rimes cannibales, habile au lexique abyssal Habité par l'esprit des anciens MC de la capitale Spécialement Zoxea, Oxmo, Kool Shen et Busta Big Red, Daddy Mory, MC Solaar et Joey 'rre-Sta' Dédicace aux précurseurs DJ, MC et leur posse Merci d'avoir rendu possible l'ascension de ce son hostile Merci à Dee Nasty, DJ James et Goldfinger Du sound de Jimmy Jay aux passes-passes de Cut Killer Je l'ai vu dans un battle de break sauvage à Châtelet Plus que dans les clips R'n'b à gros budgets faits par des minets Je l'ai vu le long des voies du RER B Plus que dans les magasines Groove, Rap Mag ou R.A.P Je l'ai vu à Clichy quand on freestylait par moins dix Plus que dans des événements, des festivals comme Urban Peace J'ai vu le hip-hop, pas aux States mais bien en France Comme quand, petit, j'balançais des vannes, et qu'tout l'monde faisait Haaan Peace, love et unity pour la community Pour ceux qui, avec le hip-hop, ont connu l'idylle B-boy, graffiti, beatbox, un tas d'vinyles Hip-hop et R'n'b, mille prod', de quoi écrire Peace, love, unity pour toute la community Pour ceux qui, avec le hip-hop, ont connu l'idylle B-boy, graffiti, beatbox, un tas d'vinyles Hip-hop et R'n'b, mille prod', mille prod' Shakespeare ignare amusant aux écrits incantatoires et médusant J'expire mon art tout en musclant ma mâchoire J'ai des gimmicks de geek, genre Give me the beat Appelle-moi Jimmy Hendrix ou Billy Ze Kick Un bout d'shit plus un poom-chick donnent un good trip Même les jours tristes, note-le sur un post-it Peace, love et unity, j'kiffe l'esprit positif Je n'suis qu'un ouistiti agrippé au pouce d'E.T P.L.U.H.F, Nivu Nikonu, Djahyef Plus Hippocampe vous achèvent sans demander qui sera l'chef Effets spéciaux plus HDéf', La Petite Voiture roule Encore plus cool, et s'arrête pas pour l'fuel, achètera pas d'peluche à elfe Baggy jean large et Tim', et l'fut' à capuche à Meth' Ne te rendent pas plus légitime, donne-moi du flow rouge à lèvres Jette-moi les faux coups, j'en ai vraiment marre et, du coup, j'abrège Peace, love et unity, et, même si ça reste fou, j'en rêve toutes les nuits1</t>
+          <t>DJ Cross-y, La Secte Phonétik Yeah, message pour toute la communauté hip-hop, peu importe la discipline, et peu importe l'époque, c'est toujours peace, love, unity and having fun, qu'tu sois militant activiste ou simple fan... Yeah, on a tous le même but en tête, et ce dès l'début d'l'enquête Rechercher un maximum de fun et, moi, j'vote pour l'entraide Laisse les 'tassiers-put' entre elles, celles qui se disputent, qu'engrainent Ou qui discutent, c'est pas celles-ci avec qui tu traînes Car la hip-hop attitude est reine, haute altitude, ULM L'habitude faut qu'tu la prennes, peace, love et unity Avoir du fun, tuer l'règne du mauvais esprit Et, le plus dur est même, comme moi, viens poser des seize 'de-spee' Pour capturer l'rêve, celui décrit dans les magasines Et, même si ma lecture est brève, depuis '96, j'apprécie Sans même effectuer d'trêve, ma culture est ainsi faite D'peinture et d'break, d'un MC avec un flow bien précis Juste entouré d'mecs qui secouent la tête sans être imbéciles Tu t'reconnais p't-être parmi eux, eh bien sache que moi aussi J'ai des mots pour les posses, et mille possibilités d'flow Qui s'négocient, mais reste hip-hop tandis que, toi, tu gossipes, nous c'est... Peace, love et unity pour la community Pour ceux qui, avec le hip-hop, ont connu l'idylle B-boy, graffiti, beatbox, un tas d'vinyles Hip-hop et R'n'b, mille prod', de quoi écrire Peace, love, unity pour toute la community Pour ceux qui, avec le hip-hop, ont connu l'idylle B-boy, graffiti, beatbox, un tas d'vinyles Hip-hop et R'n'b, mille prod', mille prod' Ami des rimes cannibales, habile au lexique abyssal Habité par l'esprit des anciens MC de la capitale Spécialement Zoxea, Oxmo, Kool Shen et Busta Big Red, Daddy Mory, MC Solaar et Joey 'rre-Sta' Dédicace aux précurseurs DJ, MC et leur posse Merci d'avoir rendu possible l'ascension de ce son hostile Merci à Dee Nasty, DJ James et Goldfinger Du sound de Jimmy Jay aux passes-passes de Cut Killer Je l'ai vu dans un battle de break sauvage à Châtelet Plus que dans les clips R'n'b à gros budgets faits par des minets Je l'ai vu le long des voies du RER B Plus que dans les magasines Groove, Rap Mag ou R.A.P Je l'ai vu à Clichy quand on freestylait par moins dix Plus que dans des événements, des festivals comme Urban Peace J'ai vu le hip-hop, pas aux States mais bien en France Comme quand, petit, j'balançais des vannes, et qu'tout l'monde faisait Haaan Peace, love et unity pour la community Pour ceux qui, avec le hip-hop, ont connu l'idylle B-boy, graffiti, beatbox, un tas d'vinyles Hip-hop et R'n'b, mille prod', de quoi écrire Peace, love, unity pour toute la community Pour ceux qui, avec le hip-hop, ont connu l'idylle B-boy, graffiti, beatbox, un tas d'vinyles Hip-hop et R'n'b, mille prod', mille prod' Shakespeare ignare amusant aux écrits incantatoires et médusant J'expire mon art tout en musclant ma mâchoire J'ai des gimmicks de geek, genre Give me the beat Appelle-moi Jimmy Hendrix ou Billy Ze Kick Un bout d'shit plus un poom-chick donnent un good trip Même les jours tristes, note-le sur un post-it Peace, love et unity, j'kiffe l'esprit positif Je n'suis qu'un ouistiti agrippé au pouce d'E.T P.L.U.H.F, Nivu Nikonu, Djahyef Plus Hippocampe vous achèvent sans demander qui sera l'chef Effets spéciaux plus HDéf', La Petite Voiture roule Encore plus cool, et s'arrête pas pour l'fuel, achètera pas d'peluche à elfe Baggy jean large et Tim', et l'fut' à capuche à Meth' Ne te rendent pas plus légitime, donne-moi du flow rouge à lèvres Jette-moi les faux coups, j'en ai vraiment marre et, du coup, j'abrège Peace, love et unity, et, même si ça reste fou, j'en rêve toutes les nuits1</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>.You might also like</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Quel est votre numéro ? J'ai découvert l'animalerie avec l'album de Oster Lapwass Absence de veine dans un monde sans gain. Je l'ai télécharger car je suis lyonnais et j'écoute tout ce qui vient de Lyon. Mais Absence de veine dans un monde sans gain, j'l'ai surkiffé ! J'y ait découvert l'animalerie dans des morceaux comme La gueule, La poisse ou Festen. L'animalerie, c'est L'entourage lyonnais Un peu plus tard j'suis tombé sur La mousse de Dico de Bavoog Avers. L'album m'a plu et je me suis encore plus intéressé à L'animalerie Mais au lieu de vous parler des autres projets du collectifs L'adultère est un jeu d'enfant, Le pire de tous, ect. j'vais vous parler des membres Oster Lapwass Grand beatmaker, et patron de l'Animalerie, ça fait quinze ans que Oster Lapwass est dans le Hip-Hop. Il a d'abord établie des connexions avec toute la scène hip-hop Lyonnaise, puis il s'est ataqué à la France avec son collectif L'animalerie Presque aussi connu qu'un beatmaker comme Hologram Lo, la presse spécialisé lui a accordé de très bonne critique Il a deja un album Absence de veine dans un monde sans gain, on peut voir sur nom sur toute les productions du collectif. Il organise des sessions freestyles dont une avec L'entourloupe Sur scène Oster Lapwass n'hésite pas a lacher quelque 16 DJ Fly Membre du collectif l'Animalerie, FLY est un très grands DJ français. Il a remporté les coupes de France DMC en 2004, 2005, 2006, 2007. Il est devenu champion de France en 2007 puis il est devenu champion du monde DMC en 2008. En 2012 il remporte le World's Greatest DJ Performance. En 2013 il remporte encore les titres de champion de France et champion du monde DMC ! Sacré palmarés ! Depuis débuts 2000 il a sortie plusieurs mixtapes, singles et EPs. Il s'est fait connaitre avec le Scratch Bandits Crew. Il fait maintenant partie de l'Animalerie, vous pouvez aussi le retrouver en solo dans toute la France et sur la terre entière, dans des sets mélangeant hip-hop, rock, soul, electro et dubstep L'animalerie et FFly ça veut dire Lyon, le graff et l'amitié. Ça veut aussi dire de nombreuses productions et remix, que ce soit avec Oster Lapwass ou Anton Serra. Et ça veut surtout dire des fucking live. FLY est un génie qui peut rendre accro n'importe qui You might also likeQue ce soit avec le collectif, en solo ou en after show, DJ Fly est un artiste que vous ne regretterez pas d'avoir écouter. Entre les X-Games , Festival International des Sport Extrême , Dubaï, 3 Tournées en Asie , Tournée Canada , tournée DMC U.K. etc... dans lesquels il se produit aux côtés d'artistes emblématiques comme Q-Bert, Grand Master Flash, Methodman, Redman, Busta Rhymes, Mobb Deep, Nas, Foreign Beggars, Chinese Man, Puppetmastaz, A-Trak, Cut Killer, Dee Nasty, Birdy Nam Nam, C2C Le 7 octobre 2013, après son deuxième titre de champion du monde, DJ Fly sort un premier EP Insolite avec Scratch Bandits Crew, Anton Serra, Les Gourmets ... Kacem Wapalek Kacem Wapalek ça veut dire mélange d'art et de technique. Grand rappeurappeuret lyriciste,il maitrise autant le style que la grammaire, c'est l'un des plus grands rappeur de ces dernières années, et ça tout le monde l'affirme Kacem déchire aussi et surtout sur scène. Il est passionné par le verbe et le beat mais ce qu'il préfere c'est les concerts où il se lache C'est l'un des premiers, avec Lapwass à se faire connaitre via le net. Ses freestyles video sur les beats de Lapwass ont contribuer à son succès Dans chaque concert la foule est en délire. En même temps tout les amateurs de Hip-Hop connaissent le nom de Kacem Wapalek Anton Serra Anton serra voue un culte au Hip-Hop depuis son plus jeune age. Maitrisant le verbe selon la street, c'est en graffant qu'il commence à s'exprimer dans les années 90. Graffant avec les SOK, Anton est surtout un grand kiffeur Rap. Son premiers crew est les Frandjos Anton Serra est un grand artiste. Il se défonce que ce soit pour dans la compo ou dans l'interpretation. Son style et ses textes lui ont permis de percer dans le rap français Il a sortie 2 albums Sales Gones 2012,Frandjos 2013 et 1 maxi Antonster Lapwaserra 2012, fait de nombreuses apparitions, notamment avec les membres de son entourage, mais surtout de sacré scène, Anto a prouvé qu'il n'était pas n'importe qui et que le gaame était dans la merde. La critique a même qualifié son album Sales Gones d'opus majeur de l'année 2012 Mais pour kiffer Anton il faut surtout le voir sur scène avec Oster Lapwass Lucio Bukowski Lucio Bukowski est considéré comme un intello du rap français, un petit peu a la manière d'un Oxmo, car tout comme lui c'est l'une des plumes les plus affinés du rap français. Mais de toutes façons Lucio ne cherche pas le succès, veut juste s'exprimer et se faire plaisir Il a participé à groupes de rap avant de faire la connaissance d'Oster Lapwass en 2008. Il rejoint alors les rappeurs Anton Serra, Kacem Wapalek qui formeront bientôt l'Animalerie Ces dernières années, avec le crew il n'a cessé d'écrire, de produire, de sortir des projets, de faire des scènes ... après 10 ans dans l'rap Lucio est encore loin d'avoir terminé Bavoog Avers Les Bavoog Avers , c'est un groupe issu du collectif, composé des CDK Cidji, Dico, Kalam's et Nadir, accompagnés de Alex Cocco aux machines Ils ont beau être jeunes , mais pas mauvais pour autant, la valeur n'attend point au nombre des années ! Et puis en termes de flow, de lyrics, d'énergie et de style, il sont au dessus de pas mal de rappeurs français. Malgré leur jeune âge ça fait presque dix ans qu'il côtoient le mic et la MPC. C'est la relève du hip-hop ! Après avoir trainé chez Lapwass pendant un bon moment, c'est logique que les CDK, puis Nadir, rejoignent l'Animalerie et se font remarquer lors des freestyles vidéos du gang. Ils ont la classe, ont toujours un temps d'avance et donne tout sur scène, en studios... Niveau discographie, on peut les trouver dans les opus de leurs camarades lyonnais en 2011 les CDK sortent leur premier album Le premier , puis Dico sort La mousse en solo en 2012 Attendus au tournant, les CDK accompagnés à présent de Nadir, travaillent sur un nouvel album,attendu par à peu prêts tout le monde. Soyez prêts ! Bavoog Avers, c'est un gros coup de pieds au cul du rap français Sur scène, les Bavoog Avers proposent actuellement un set d'une quarantaine de minutes. Et s'ils sont en combinaison avec d'autres membres de l'animalerie, ils participent ensemble ou indépendamment aux shows de leurs camarades Je sais que j'ai pas parler des autres membres du crew mais j'donne quand même les blazes Ilenazz, Na.K, Ethor Skull, Thriller, Missak, Marie, Milka, Nomad, Libann ... L'animalerie c'est le crew du moment2</t>
+          <t>Quel est votre numéro ? J'ai découvert l'animalerie avec l'album de Oster Lapwass Absence de veine dans un monde sans gain. Je l'ai télécharger car je suis lyonnais et j'écoute tout ce qui vient de Lyon. Mais Absence de veine dans un monde sans gain, j'l'ai surkiffé ! J'y ait découvert l'animalerie dans des morceaux comme La gueule, La poisse ou Festen. L'animalerie, c'est L'entourage lyonnais Un peu plus tard j'suis tombé sur La mousse de Dico de Bavoog Avers. L'album m'a plu et je me suis encore plus intéressé à L'animalerie Mais au lieu de vous parler des autres projets du collectifs L'adultère est un jeu d'enfant, Le pire de tous, ect. j'vais vous parler des membres Oster Lapwass Grand beatmaker, et patron de l'Animalerie, ça fait quinze ans que Oster Lapwass est dans le Hip-Hop. Il a d'abord établie des connexions avec toute la scène hip-hop Lyonnaise, puis il s'est ataqué à la France avec son collectif L'animalerie Presque aussi connu qu'un beatmaker comme Hologram Lo, la presse spécialisé lui a accordé de très bonne critique Il a deja un album Absence de veine dans un monde sans gain, on peut voir sur nom sur toute les productions du collectif. Il organise des sessions freestyles dont une avec L'entourloupe Sur scène Oster Lapwass n'hésite pas a lacher quelque 16 DJ Fly Membre du collectif l'Animalerie, FLY est un très grands DJ français. Il a remporté les coupes de France DMC en 2004, 2005, 2006, 2007. Il est devenu champion de France en 2007 puis il est devenu champion du monde DMC en 2008. En 2012 il remporte le World's Greatest DJ Performance. En 2013 il remporte encore les titres de champion de France et champion du monde DMC ! Sacré palmarés ! Depuis débuts 2000 il a sortie plusieurs mixtapes, singles et EPs. Il s'est fait connaitre avec le Scratch Bandits Crew. Il fait maintenant partie de l'Animalerie, vous pouvez aussi le retrouver en solo dans toute la France et sur la terre entière, dans des sets mélangeant hip-hop, rock, soul, electro et dubstep L'animalerie et FFly ça veut dire Lyon, le graff et l'amitié. Ça veut aussi dire de nombreuses productions et remix, que ce soit avec Oster Lapwass ou Anton Serra. Et ça veut surtout dire des fucking live. FLY est un génie qui peut rendre accro n'importe qui Que ce soit avec le collectif, en solo ou en after show, DJ Fly est un artiste que vous ne regretterez pas d'avoir écouter. Entre les X-Games , Festival International des Sport Extrême , Dubaï, 3 Tournées en Asie , Tournée Canada , tournée DMC U.K. etc... dans lesquels il se produit aux côtés d'artistes emblématiques comme Q-Bert, Grand Master Flash, Methodman, Redman, Busta Rhymes, Mobb Deep, Nas, Foreign Beggars, Chinese Man, Puppetmastaz, A-Trak, Cut Killer, Dee Nasty, Birdy Nam Nam, C2C Le 7 octobre 2013, après son deuxième titre de champion du monde, DJ Fly sort un premier EP Insolite avec Scratch Bandits Crew, Anton Serra, Les Gourmets ... Kacem Wapalek Kacem Wapalek ça veut dire mélange d'art et de technique. Grand rappeurappeuret lyriciste,il maitrise autant le style que la grammaire, c'est l'un des plus grands rappeur de ces dernières années, et ça tout le monde l'affirme Kacem déchire aussi et surtout sur scène. Il est passionné par le verbe et le beat mais ce qu'il préfere c'est les concerts où il se lache C'est l'un des premiers, avec Lapwass à se faire connaitre via le net. Ses freestyles video sur les beats de Lapwass ont contribuer à son succès Dans chaque concert la foule est en délire. En même temps tout les amateurs de Hip-Hop connaissent le nom de Kacem Wapalek Anton Serra Anton serra voue un culte au Hip-Hop depuis son plus jeune age. Maitrisant le verbe selon la street, c'est en graffant qu'il commence à s'exprimer dans les années 90. Graffant avec les SOK, Anton est surtout un grand kiffeur Rap. Son premiers crew est les Frandjos Anton Serra est un grand artiste. Il se défonce que ce soit pour dans la compo ou dans l'interpretation. Son style et ses textes lui ont permis de percer dans le rap français Il a sortie 2 albums Sales Gones 2012,Frandjos 2013 et 1 maxi Antonster Lapwaserra 2012, fait de nombreuses apparitions, notamment avec les membres de son entourage, mais surtout de sacré scène, Anto a prouvé qu'il n'était pas n'importe qui et que le gaame était dans la merde. La critique a même qualifié son album Sales Gones d'opus majeur de l'année 2012 Mais pour kiffer Anton il faut surtout le voir sur scène avec Oster Lapwass Lucio Bukowski Lucio Bukowski est considéré comme un intello du rap français, un petit peu a la manière d'un Oxmo, car tout comme lui c'est l'une des plumes les plus affinés du rap français. Mais de toutes façons Lucio ne cherche pas le succès, veut juste s'exprimer et se faire plaisir Il a participé à groupes de rap avant de faire la connaissance d'Oster Lapwass en 2008. Il rejoint alors les rappeurs Anton Serra, Kacem Wapalek qui formeront bientôt l'Animalerie Ces dernières années, avec le crew il n'a cessé d'écrire, de produire, de sortir des projets, de faire des scènes ... après 10 ans dans l'rap Lucio est encore loin d'avoir terminé Bavoog Avers Les Bavoog Avers , c'est un groupe issu du collectif, composé des CDK Cidji, Dico, Kalam's et Nadir, accompagnés de Alex Cocco aux machines Ils ont beau être jeunes , mais pas mauvais pour autant, la valeur n'attend point au nombre des années ! Et puis en termes de flow, de lyrics, d'énergie et de style, il sont au dessus de pas mal de rappeurs français. Malgré leur jeune âge ça fait presque dix ans qu'il côtoient le mic et la MPC. C'est la relève du hip-hop ! Après avoir trainé chez Lapwass pendant un bon moment, c'est logique que les CDK, puis Nadir, rejoignent l'Animalerie et se font remarquer lors des freestyles vidéos du gang. Ils ont la classe, ont toujours un temps d'avance et donne tout sur scène, en studios... Niveau discographie, on peut les trouver dans les opus de leurs camarades lyonnais en 2011 les CDK sortent leur premier album Le premier , puis Dico sort La mousse en solo en 2012 Attendus au tournant, les CDK accompagnés à présent de Nadir, travaillent sur un nouvel album,attendu par à peu prêts tout le monde. Soyez prêts ! Bavoog Avers, c'est un gros coup de pieds au cul du rap français Sur scène, les Bavoog Avers proposent actuellement un set d'une quarantaine de minutes. Et s'ils sont en combinaison avec d'autres membres de l'animalerie, ils participent ensemble ou indépendamment aux shows de leurs camarades Je sais que j'ai pas parler des autres membres du crew mais j'donne quand même les blazes Ilenazz, Na.K, Ethor Skull, Thriller, Missak, Marie, Milka, Nomad, Libann ... L'animalerie c'est le crew du moment2</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Chacune d'mes traces est machiavélique On dit qu'mon flow est mélancolique La prod' est signée En'Zoo, t'as ressenti l'truc d'Amérique ? Y'a des lignes, t'as des rimes, et si t'es hip-hop t'es partant Si t'as fini, rembobine et reçois mon son comme partage Qu'on s'attache et qu'on placarde De nuit ou sous une lampe Si j't'ai éclairé sur l'sujet, pourquoi on s'amuse mieux en Hollande ? Ça taffe depuis un moment C'est tout c'qu'on veut retransmettre Notre rap n'a pas d'visage, c'est tout c'qui fait sa beauté Excusez-nous d'être honnêtes, d'aimer l'hip-hop à la lettre Pour moi un bon son d'Big L c'est mieux qu'les filles d'à coté J'ai trop d'choses à noter, demande à R.Can J'suis de Sète jusqu'à Perpi', et ceux qui m'traduisent en Espagne Gueuler ou me taire, parler ou mentir Le stylo Bic d'Harry Potter, pas une magie pour rebondir Un album que j'm'enterre, j'viens d'loin comment vous dire Et que Dieu m'en soit témoin, j'n'ai pas d'maille pour les coquines J'n'ai pas l'temps je le confirme Si tu n'm'aimes pas je fais avec J'parle français, ma consigne sans la CB de Ben Affleck Sans l'CV de ceux qui grimpent, qu'on retrouve une fois en-bas Pendant qu't'étais dans tes studios, ben ton père s'tuait au taf Inutile d'chercher une dame, d'après la reine tu ne comptes pas Fais l'calcul ça n'aide plus d'avoir un BEP compta' Ça sert à quoi de rester stable, souriant voire amical ? À force de regarder les gens, j'comprends tes douleurs cervicales You might also like Ne t'inquiète pas on est tous pareils Toi qui vit autre part écoute, my man Je crois que l'écriture et la musique t'amènent Voir que chacun d'entre nous a un p'tit problème Woho Oh mon Dieu qu'elle nous a fait progressé Big up à ceux qui nous ont lâchés, qui n'ont connu que la période d'essai On est dedans depuis le début, sans notice, très impliqués Tu peux courir avant qu'mes valeurs ne se pervertissent J'zappe ceux qui trahissent, j'regarde ceux qui sourient J'suis comme un gamin quand Dee Nasty fait mon warm-up à Paris Alors non merci si mon rap n'est pas porteur de message S'il n'est pas une bouée dans l'aquarium où le Monde nage S'il n'est pas une perche tendue vers un avenir optimiste Secouez-moi si un jour il perd sa flamme militantiste Hip-hop jusqu'à l'amour comme Nabil Zéroual Le plus important c'est le chemin, pas d'atteindre l'étoile Intègre et sans aucun problème existentiel Bien sûr que l'rap c'était mieux avant, et ça c'est officiel J'parle de valeurs, de message, pas d'instrumentale Mais d'ceux qui sont dessus et te saoulent en faisant l'apologie du mal Avec le temps tu t'rendras compte qu'ils ne sont même pas fiables Ils ignorent tant d'choses, ils connaissent même pas Fabe Nous on est chauds, opé sans la te-car d'Affleck Ben Avec l'envie d'offrir à nos proches ce que vise Amel Bent Voilà ce qu'on défend, la façon dont on l'imagine Rachid, j'comprends qu'tu n'veuilles pas d'pâtes dans ton tajine Les fondations feront la tenue de tes entreprises Le but n'est pas qu'elles soient bancales comme celle érigé à Pise Ne t'inquiète pas on est tous pareils Toi qui vit autre part écoute, my man Je crois que l'écriture et la musique t'amènent Voir que chacun d'entre nous a un p'tit problème Woho</t>
+          <t>Chacune d'mes traces est machiavélique On dit qu'mon flow est mélancolique La prod' est signée En'Zoo, t'as ressenti l'truc d'Amérique ? Y'a des lignes, t'as des rimes, et si t'es hip-hop t'es partant Si t'as fini, rembobine et reçois mon son comme partage Qu'on s'attache et qu'on placarde De nuit ou sous une lampe Si j't'ai éclairé sur l'sujet, pourquoi on s'amuse mieux en Hollande ? Ça taffe depuis un moment C'est tout c'qu'on veut retransmettre Notre rap n'a pas d'visage, c'est tout c'qui fait sa beauté Excusez-nous d'être honnêtes, d'aimer l'hip-hop à la lettre Pour moi un bon son d'Big L c'est mieux qu'les filles d'à coté J'ai trop d'choses à noter, demande à R.Can J'suis de Sète jusqu'à Perpi', et ceux qui m'traduisent en Espagne Gueuler ou me taire, parler ou mentir Le stylo Bic d'Harry Potter, pas une magie pour rebondir Un album que j'm'enterre, j'viens d'loin comment vous dire Et que Dieu m'en soit témoin, j'n'ai pas d'maille pour les coquines J'n'ai pas l'temps je le confirme Si tu n'm'aimes pas je fais avec J'parle français, ma consigne sans la CB de Ben Affleck Sans l'CV de ceux qui grimpent, qu'on retrouve une fois en-bas Pendant qu't'étais dans tes studios, ben ton père s'tuait au taf Inutile d'chercher une dame, d'après la reine tu ne comptes pas Fais l'calcul ça n'aide plus d'avoir un BEP compta' Ça sert à quoi de rester stable, souriant voire amical ? À force de regarder les gens, j'comprends tes douleurs cervicales Ne t'inquiète pas on est tous pareils Toi qui vit autre part écoute, my man Je crois que l'écriture et la musique t'amènent Voir que chacun d'entre nous a un p'tit problème Woho Oh mon Dieu qu'elle nous a fait progressé Big up à ceux qui nous ont lâchés, qui n'ont connu que la période d'essai On est dedans depuis le début, sans notice, très impliqués Tu peux courir avant qu'mes valeurs ne se pervertissent J'zappe ceux qui trahissent, j'regarde ceux qui sourient J'suis comme un gamin quand Dee Nasty fait mon warm-up à Paris Alors non merci si mon rap n'est pas porteur de message S'il n'est pas une bouée dans l'aquarium où le Monde nage S'il n'est pas une perche tendue vers un avenir optimiste Secouez-moi si un jour il perd sa flamme militantiste Hip-hop jusqu'à l'amour comme Nabil Zéroual Le plus important c'est le chemin, pas d'atteindre l'étoile Intègre et sans aucun problème existentiel Bien sûr que l'rap c'était mieux avant, et ça c'est officiel J'parle de valeurs, de message, pas d'instrumentale Mais d'ceux qui sont dessus et te saoulent en faisant l'apologie du mal Avec le temps tu t'rendras compte qu'ils ne sont même pas fiables Ils ignorent tant d'choses, ils connaissent même pas Fabe Nous on est chauds, opé sans la te-car d'Affleck Ben Avec l'envie d'offrir à nos proches ce que vise Amel Bent Voilà ce qu'on défend, la façon dont on l'imagine Rachid, j'comprends qu'tu n'veuilles pas d'pâtes dans ton tajine Les fondations feront la tenue de tes entreprises Le but n'est pas qu'elles soient bancales comme celle érigé à Pise Ne t'inquiète pas on est tous pareils Toi qui vit autre part écoute, my man Je crois que l'écriture et la musique t'amènent Voir que chacun d'entre nous a un p'tit problème Woho</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Dee_Nasty_songs.xlsx
+++ b/data/02_intermediate/cleaned_Dee_Nasty_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pour toi le beur</t>
+          <t>Pousse Les Bass</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1984 XXXX Dominique Durand Daniel Boulogne collab. Hervé Jacob - Le Livre du mur peint art et technique XXXX Mister Fresh and The Supreme Rockers trad. Philippe Monnier - Tout sur la breakdance et la hip-hop culture Breakdancing Mr. Fresh and the Supreme Rickers Show You How XXXX Sidney - Hip-hop 1985 XX04 Denys Riout photogr. Dominique Gurdjian, Jean-Pierre Leroux Denys Riout - Le Livre du graffiti XX12 B.DE La Rue Faustin Linyekula - Bebson de la rue, rappeur 1987 XXXX François Dubet - La galère jeunes en survie 1990 XX10 Georges Lapassade Philippe Rousselot - Le rap ou la fureur de dire XXXX Michel Kokoreff - Le lisse et lincisif les tags dans le métro XXXX Patrick Louis Laurent Prinaz - Skinheads, Taggers, Zulus Co 1991 XX01 David Dufresne - Yo! révolution rap l'histoire, les groupes, le mouvement 1607 Yvan Tessier - Paris art libre dans la ville 1710 Farid Aïchoune - Nés en banlieue XXXX Tarek Ben Yakhlef Sylvain Doriath - Paris Tonkar 4 ans de graffiti XXXX Anne Giudicelli - La caillera XXXX Jean-Clarence Lambert Pierre Restany - Bernard Quentin. Des graffitis de 1947 aux monuments du 3e millénaire XXXX Gérard Mauger - Hippies, loubards, zoulous, jeunes marginaux de 1968 à aujourdhui 1992 XX09 Delacorta - Rap a babylone beach XXXX Sylvère-Henry Cissé Jean Callens photogr. de Mimi Brocas - Rap en Nord XXXX Adil Jazouli - Les années banlieues XXXX Frauke Hoekstra dir. trad. ? - Coming from the subway New York graffiti art, histoire et développement dun mouvement controversé XXXX Ouvrage collectif - Jean-Michel Basquiat une rétrospective catalogue d'exposition, Musée Cantini, Marseille, 4 juillet-20 septembre 1992, Musées de Marseille XXXX Richard Shusterman - Lart à létat vif, la pensée pragmatiste et lesthétique populaire XXXX Alain Vulbeau - Du tag au tag XXXX Michel Wieviorka - La France raciste 1993 XXXX Saïd Bouamama - De la galère à la citoyenneté, les jeunes, la cité, la société XXXX Fred Chéreau - Rap killer XXXX Desse SBG - Freestyle. Entretiens XXXX Martine Lani-Bayle - Du tag au graffart. Les messages de lexpression murale graffitée 1994 0109 Martha Cooper Joseph Sciorra - RIPNYC, requiescat in pace à New York city Bombages in memoriam 0609 Louis-Jean Calvet - Les voix dune ville. Introduction à la sociolinguistique urbaine XXXX Patrick Chauvet - L'éducation entre rap et tag XXXX Corinne Matheron Jacques Subileau - Jeunes, musiques et médiation XXXX Médiathèque de Nancy - Rap histoire d'une contre culture. Les origines, les influences, les différentes tendances, le devenir du mouvement XXXX Alain Vulbeau - La jeunesse et la rue 1995 XXXX Hugues Bazin - La culture hip-hop XXXX Jean-Marie Marconot dir. collab. Jean-Pierre Besombes-Vailhé, Claire Guinchat Eliana Gracia, photogr. Bruno Soyris - Le langage des murs du graffe au graffiti XXXX Jean-Pierre Saez dir. - Identités, cultures et territoires 1996 0106 Soraya Nini illustr. Farid Boudjellal - Hip-hop lexique illustré des figures de danse hip-hop XX09 José-Louis Bocquet Philippe Pierre-Adolphe - Rap ta France XX09 Didier Deroin Gilles Rof - IAM, le livre XXXX Sophie Body-Gendrot - Réagir dans les quartiers en crise. Dynamique américaine. Les empowerment zones XXXX Olivier Cachin - L'Offensive rap XXXX Alain Darre dir. - Musique et politique, les répertoires de lidentité XXXX Franck Darty François Menard - Entre lenseignement des danses hip-hop et le soutien scolaire la construction du sens des expériences dintégration de jeunes issus de limmigration maghrébine XXXX Boris Seguin Frédéric Teillard - Les Céfrans parlent aux Français, chronique de la langue des cités 1997 XX09 Hubert Herbreteau - Comprendre les cultures des jeunes du rap au journal intime XX11 Rapologie - Textes choisis et présentés par Philippe Pierre-Adolphe José-Louis Bocquet XXXX Gérôme Guibert - Les nouveaux courants musicaux simples produits des industries culturelles ? XXXX Anne-Marie Green dir. - Des jeunes et des musiques rock, rap, techno XXXX David Lepoutre - Cur de banlieue XXXX Clyde Puma - Le rap français XXXX Ouvrage collectif - Pratiques de production musicale chez les jeunes journée d'étude, 25 janvier 1997 XXXX Isabelle Galloni d'Istria dir. photogr. Frédéric Atlan, trad. Joshua Karson - Séquence d'une vie Collectif Mouv' XXXX Pierre Mayol - Les enfants de la liberté, étude sur lautonomie sociale et culturelle des jeunes en France, 1970-1996 1998 1103 Augustin Aubert, Marc-Casimiro de San Leandro Virginie Milliot - Je texte termine Anthologie de textes rap 1503 Jean Calio - Le Rap Une réponse des banlieues ? 2805 Denis-Constant Martin - Le gospel afro-américain des spirituals au rap religieux XX06 Antoine Garnier - Comprendre le rap XX11 Marie-Christine Vernay - La danse hip hop XXXX Olivier Cathus - Lâme sueur, Le funk et les musiques populaires du XXe siècle 1999 1203 Manuel Boucher préf. Hugues Bazin - Rap, expression des lascars. Significations et enjeux du rap dans la société française XX04 Vincent Martorella - Le petit inédit de MC Solaar XX04 Claudine Moïse collab. Philippe Mourrat, photogr. Anne Nordmann - Danseurs du défi rencontre avec le hip hop XX05 Médéric Gasquet-Cyrus, Guillaume Kosmicki Cécile Van Den Avenne dir. - Paroles et musiques à Marseille les voix d'une ville 0106 Alain Milon - L'étranger dans la ville du rap au graff mural XXXX Stéphane Tessier - A la recherche des enfants de la rue 2000 1002 Jean-Claude Perrier - Le rap français - Anthologie XX05 Ouvrage collectif - Les plus belles pages du rap français XX10 François Goalec - Rap ton tag XX11 Gautier Bischoff, ECR Julien Malland - Kapital, un an de graffiti à Paris XX11 Louis Genton - Le rap ou la révolte ? XXXX S.H. Fernando Jr trad. Arnaud Réveillon Jean-Philippe Henquel - The New Beats cultures, musique et attitudes hip-hop 2001 0106 Mathias Vicherat - Pour une analyse textuelle du rap français XXXX Gilles Boudinet - Pratiques tag vers la proposition d'une transe-culture XXXX Marie-Aude Murail - Tête à rap XXXX Colette Sabatier, Jorge Palacio, Hamida Namane Sandrine Collette - Savoirs et enjeux de l'interculturel nouvelles approches, nouvelles perspectives XXXX Béatrice Sberna - Une sociologie du rap à Marseille identité marginale 2002 XX08 Poschardt Ulf trad. Jean-Philippe Henquel Emmanuel Smouts - DJ culture XXXX Gilles Boudinet - Pratiques tag vers la proposition dune trance-culture XXXX Alain Vulbeau - Les inscriptions de la jeunesse 2003 XX03 Bouziane Daoudi Hadj Miliani - Beurs Melodies. Cent ans de chansons immigrées du blues berbère au rap beur 2907 Antoine Wave Garnier - Souffle au coeur de la génération hip hop, entre New York et Paris 0309 Nick Hasted trad. Géraldine Masson - Eminem la face obscure The dark story of Eminem 1611 Mathieu Kendrick Lionel Olives - La France d'en bas le graffiti dans le Sud XX12 Manuel Boucher Alain Vulbeau dir. - Émergences culturelles et jeunesse populaire. Turbulences ou médiations ? XXXX Christian Béthune - Le rap une esthétique hors-la-loi 2004 XX03 Abd al Malik - Qu'Allah bénisse la France ! XX03 Jean-Pierre Moulin - Une histoire de la chanson française des troubadours au rap XX05 Christian Béthune - Pour une esthétique du rap XX05 Anthony Bozza trad. Benjamin Julien Guérif - Eminem blanc comme le rap Whatever you say I am 1508 Claudine Moïse préf Jean-Paul Montanari, textes de Najib Guerfi Philippe Mourat, entretiens avec Kader Attou, Mohamed Belarbi, Hamid Benhami... - Danse hip-hop respect ! XXXX MPG Art - La rue aux artistes 2005 XX02 Pierre Evil - Gangsta rap XX02 Sylvia Faure Marie Carmen Garcia - Culture hip hop, jeunes des cités et politiques publiques XX03 Bruno Blum - Le ragga Reggae, rap, DJ XX04 Abdellali Hajjat - Immigration postcoloniale et mémoire 1305 Marie-Madeleine Bertucci Daniel Delas dir. - Français des banlieues français populaire ? 1512 Pierre-Antoine Marti - Rap 2 France les mots d'une rupture identitaire 2006 2301 Doc Gyneco - Un homme nature XX01 Nicholas Ganz trad. Marie Tillol - Planète graffiti version filles XX04 Franz Miceli - Les légendes du rap 2205 Joey Starr - Mauvaise réputation 2107 Antoine Wave Garnier - Les Suprêmes la révolution vibracutic 2308 Ace Atkins trad. Nathalie Mège - Dirty South Rap Dirty South XX09 Olivier Cachin préf. Joey Starr - Les 100 albums essentiels du Rap, Hip-Hop l'authentique histoire en 101 disques essentiels 0510 Nik Cohn trad. Bernard Hoepffner, collab. Catherine Goffaux - Triksta un écrivain blanc chez les rappeurs de la Nouvelle-Orléans Triksta 1410 Jean-Éric Perrin - Les 50 superstars du rap 1910 Morgan Jouvenet - Rap, techno, électro Le musicien entre travail artistique et critique sociale XXXX Jeff Chang trad. Héloïse Esquié - Can't Stop Won't Stop A History of the Hip-Hop Generation traduction de la 1ère édition, New York St. Martin's Press, 2005 2007 XX01 Jean-Paul Levet - Talkin' that talk le langage du blues, du jazz et du rap XX02 Doc Gyneco - Les grands esprits se rencontrent 0103 Joy Sorman - Du bruit XX05 Thomas Blondeau Fred Hanak préf. Olivier Cachin - Combat Rap 25 ans de hip-hop Entretiens 0106 Jean-Marie Seca, dir. - 2007, Musiques populaires underground et représentations du politique 2106 Olivier Cachin illustr. Alberto Vejarano - Le dictionnaire du rap, De A jusqu'à Z, Le grand remix du hip hop 0410 Alain Rey Disiz la Peste - Lexik des Cités 0810 Julie Magne - Diams La revanche du RAP 2510 Jerry Heller trad. Olivier Cachin, illustr. Gabriel Gay, collab. Gil Reavill - Gangsta rap attitude les impitoyables mémoires d'un Juif blanc devenu le plus grand manager du rap noir de Californie 2710 David O'Neill - Explicit toute la culture rap ou presque 2211 Sébastien Farran - Suprême NTM, l'intégrale XX11 Ouvrage collectif - De la révolte à la conscience 0112 Anthony Pecqueux - Voix du rap Essai de sociologie de laction musicale XXXX Didier Stiers - Flashback histoires de la danse hip hop en Belgique 2008 XX01 Sandy Lakdar - Looking for gangstaz carnets de route d'une Parisienne dans les ghettos 2802 Rémi Pépin - Hip-hop, R'n'B 2802 Edgar Sekloka - Coffee 1604 Matthieu Grimpret - Traité à l'usage de mes potes de droite qui ont du mal à kiffer la France de Diam's XX04 Olivier Cachin préf. Diams - Rap stories 2905 Shéyen Gamboa préf. Joeystarr, dir. Olivier Cachin - Hip hop l'histoire de la danse 1806 Isabelle Marc Martínez - Le rap français esthétique et poétique des textes, 1990-1995 1906 William T. Lhamon Jr. trad. Sophie Renaut, préf. Jacques Rancière - Peaux blanches, masques noirs performance du blackface, de Jim Crow à Michael Jackson Raising Cain blackface performance from Jim Crow to hip-hop 1708 Cyril Vettorato - Un monde où l'on clashe la joute verbale d'insultes dans la culture de rue 1809 Chuck Weiner trad. Karinne Michel - Eminem, la face cachée de Slim Shady traduction de Eminem talking Marshall Mathers in His Own Words XX09 Thomas Blondeau Fred Hanak - Combat Rap II 20 Ans de hip-hop en France Entretiens 0110 Christophe Genin - Miss.Tic, femme de l'être 0910 Loïc Lafargue de Grangeneuve - Politique du hip-hop Action publique et cultures urbaines 2310 Julien Barret - Le Rap ou l'artisanat de la rime XX10 Rost - Enfant des lieux bannis XXXX Ronin Ro trad. Nicolas Donato - Dr Dre 2009 2603 Oxmo Puccino - Mines de cristal XX04 Randall Sullivan trad. Benjamin Julien Guérif - L.A.byrinthe enquête sur les meurtres de 2Pac Shakur et Notorious B.I.G., sur l'implication de Suge Knight, le patron de Death Row Records, et sur les origines d'un des plus gros scandales a avoir éclaboussé la police de Los Angeles 1906 Anthony Pecqueux - Le Rap idées reçues sur le rap 3108 Serigne M'Baye Gueye Disiz La Peste - Les derniers de la rue Ponty 0309 Bruno Blum - Le rap est né en Jamaïque XX10 Stéphanie Molinero - Les publics du rap enquête sociologique XX12 Raphael Richard préf. Matt Black - L'histoire des DJ ... et de leur influence sur la musique XXXX Jean-Claude Perrier - Le rap français dix ans après anthologie 2010 1802 Abd al Malik préf. Juliette Gréco - La guerre des banlieues n'aura pas lieu 2202 Adeline Lajoinie - Rap stars les nouvelles icônes XX03 Steve Gadet préf. Gilbert Elbaz - La fusion de la culture hip-hop et du mouvement rastafari XX03 Sandy Lakdar - De Compton à Paris keep it Gangsta 0104 Akhenaton préf. Éric Mandel - La face B XX04 Denis-Constant Martin dir. - Quand le rap sort de sa bulle sociologie politique d'un succès populaire XX06 Sté Strausz Antoine Dole - Fly girls - Histoires du Hiphop féminin en France XX08 Steve Gadet - La culture hip-hop dans tous ses états XX10 Jean-Philippe Petesch dir. - L'intertextualité lyrique Recyclages littéraires et cinématographiques opérés par la chanson XX11 Claude Abron - Graffiti XX12 Banksy - Guerre et spray Wall and piece 2011 XX02 Florent Le Reste - Homeboy du quartier au hip-hop 2409 Ambre Viaud - Street art un musée à ciel ouvert 1310 Bill Adler Dan Charnas dir. Cey Adams, préf. Rick Rubin, Russel Simmons, Lyor Cohen, Kelefa Sanneh , trad. Olivier Cachin - Def Jam Recordings la saga du label rap mythique XX11 Edgar Sekloka - Adulte à présent XX12 Isabelle Calabre Théâtre de Suresnes - 1993-2012, Suresnes cités danse les 20 ans du festival XXXX Kader Attou, Mic Guillaumes, Georgiana Wierre-Gore... - Quel corps en jeu en danse hip hop ? actes de la table ronde du 22 mars 2011, organisée par le Centre chorégraphique national de La Rochelle 2012 1602 Abd al Malik préf. Mazarine Pingeot - Le Dernier Français 2002 Jean-Pierre Labarthe Charlie R. Braxton - Gangsta Gumbo, Une anthologie du rap sudiste US via Houston, Memphis, Atlanta, Miami, Jackson La Nouvelle-Orléans 0803 Disiz - René 1204 Thomas Gaetner - Hip hop le rap français des années 90 XX05 Marc Boudet Jay One Ramier photogr. Yoshi Omori, trad. Tristan Stansbury Anthony Ghilas - Mouvement du terrain vague au dance floor, 1984-1989 1406 Sylvain Bertot - Rap, Hip-hop Trente années en 150 albums de Kurtis Blow à Odd Future 0510 Kery James - 92-2012 20 ans d'écriture 1810 Médine et Pascal Boniface - Dont' Panik 2510 Valéry Debov préf. Christophe Rubin - Diko des rimes en verlan dans le rap français 2610 Paulin Arnaud Tilong Longla - Analyse sémio-pragmatique du rap politique camerounais 1810 Grand Corps Malade - Patients 0811 Roda N'no Alice Aterianus-Owanga - Akamayong-Nkemeyong Recueil de textes de rap en langue fang nzaman 2211 Karim Hammou préf. Howard Becker - Une histoire du rap en France 2013 1701 Jean Gab1 - Sur la tombe de ma mère 2102 Mathias Cardet dir. Florian Sanchez - L'effroyable imposture du rap 0103 Aline Tauzin - Littérature orale de Mauritanie de la fable au rap 2103 Passi Steeve Balende - Explication de textes 2103 Simon Reynolds trad. Charles Recoursé - Bring the noise 25 ans de rock et de hiphop 2603 Renaud Epstein - La Rénovation urbaine, Démolition-reconstruction de l'État XX06 Philippe Robert - Great black music Un parcours en 110 albums essentiels. Funk, soul, rap, jazz, reggae 1907 Mathieu Baleria - Je dérape autour du rap et ma plume s'envole XX09 Julien Valnet préf. Olivier Cachin, photogr. Jean-Pierre Maéro, couv. AKA - MARS histoires et légendes du hip-hop marseillais 1011 Étienne Kervella photogr. Aqua Toffana - Certifiées hip hop 55 portraits hip hop en région Pays de la Loire 1211 La Fouine, Karim Madani Christian Séranot - Drôle de parcours 1311 Sexion d'Assaut - Le Succès d'une amitié XX11 Christophe Génin - Le street art au tournant, reconnaissance dun genre. Les impressions nouvelles XX12 Kheops Olivier Cachin - Le funk et moi 2014 0101 Ludovic Villard - Notes prises dans le désert 1502 David Bérillon Thomas Ramires - Danse hip-hop 2003 Oxmo Puccino - 140 piles 0304 Kheira Belhadj-Ziane préf. Antigone Mouchtouris - Le rap underground un mythe actuel de la culture populaire 1304 Francis Métivier - Rap'n philo 905 Soprano - Mélancolique anonyme 0106 Jacques Denis photogr. Pierre Mérimée - Intifada rap 2206 Sylvain Bertot - Rap Indépendant, La vague hip-hop des années 19902000 en 30 scènes et 100 albums 0209 Mark Breddan - La face voilée du rap 0809 Jean-Philippe Denis - Introduction au hip-hop management 0810 Vincent Piolet préf. Dee Nasty - Regarde ta jeunesse dans les yeux - Naissance du hip hop français 1980-1990 0611 Laurent Bouneau - Le rap est la musique préférée des français 2015 2801 Alexandre Chirat - Booba, Poésie, musique et philosophie XX01 Michael Eric Dyson Sohail Daulatzai - Born to use mics Une lecture d'Illmatic de Nas 1604 Mehdi Maizi - Rap français Une exploration en 100 albums 1305 Élodie Bouffard dir. - Hip Hop, du Bronx aux rues arabes catalogue d'exposition, Paris, Institut du monde arabe, 28 avril-26 juillet 2015 1807 Fatou Kande Senghor - Wala Bok, une histoire orale du hip hop au Sénégal 1410 Maître Gims - Vise le soleil XXXX François Gautret Natacha Bernardin - Abcdaire de la danse hip-hop 2016 XX02 Freddy Marcin - Ouragan Katrina à la croisée des genres musicaux 2408 Gaël Faye - Petit Pays 0110 Rodolphe Sako Gagetta préf. Akhenaton - Quoi qu'il arrive 1010 Sylvain Freyburger Christophe Schmitt - Egotrip collectif. 25 ans de rap à Mulhouse 2010 Maxime Delcourt - 2pac, He against the world 2010 Bettina Ghio - Sans fautes de frappe, rap et littérature 2010 Oxmo Puccino Pierre-Luc Jamain - Au fil du chant 2710 Thomas Blondeau - Hip Hop, une histoire française 0411 Félix Jousserand - Rhapsodes Anthologie du rap français 0411 David Foster Wallace Mark Costello trad. Diniz Galhos - Rappeurs de sens Signifying Rappers 0811 Pat Thomas préf. Stanley Neslon, trad. France Nancy - Listen Whitey ! Sons images du Black Power 1965-1975 Listen, Whitey! The Sounds Of Black Power 1967 1974 25 11 Frank Ocean - Blonde Magazine Boys Don't Cry 3011 Shea Serrano trad. Lelo Jimmy Batista - Le Rap Book traduction de The Rap Year Book The Most Important Rap Song from Every Year Since 1979, Discussed, Debated, and Deconstructed 1512 Thierry Grone - Dicograff, Le monde du graffiti de A à Z 2017 0902 Frédéric Candian - Rap lyrics 2006-2016 Dix ans d'écriture et de musique 1102 Karim Madani - Jewish gangsta aux origines du mouvement Goon 1603 Pierre-Jean Cléraux - New York state of mind une anthologie du rap new-yorkais XX04 Jean-Marie Marconot - Le graffe, le rap et le slam société et culture... XX04 Ludovic Villard - Je demeure paisible au travers de leurs gorges 1805 Sylvain Bertot - Mixtapes un format musical au coeur du rap 0606 Bursty 2 Brazza - L'odyssée de la mix-tape en France 1006 Adam King - 2Pac Shakur, une légende du rap 2906 Trip Lee préf. John Piper, trad. Anne Worms - Lève-toi, vis ! Rise Get Up and Live in God's Great Story 0607 Adrien Grimmeau Benoît Quittelier dir. - Yo Brusssels hip-hop generations... catalogue d'exposition, Bruxelles, Bozar, Palais des beaux-arts de Bruxelles, 28 juin-17 septembre 2017 XX08 Alice Aterianus-Owanga - Le rap, ça vient d'ici ! Musiques, pouvoir et identités dans le Gabon contemporain 1209 Ouvrage collectif - Le rap français en 50 punchlines 0110 Valéry Debov préf. Christophe Rubin - Rimes de rap français Abréviations, sigles et acronymes 0510 Aurore Vincenti - Les mots du bitume De Rabelais aux rappeurs, petit dictionnaire de la langue de la rue 2010 David Delaplace préf. Dan de Ticaret - Le visage du rap 0211 Olivier Cachin - Naissance d'une nation hip hop, 50 ans de rap made in USA 0811 Hamé Ekoué La Rumeur - Il y a toujours un lendemain XX12 Wild Sketch Alkpote - Les Incroyables Aventures de John Hash 0112 Jean-Pierre Maéro - L'Odyssée Martienne 2018 0401 Fabien Brugière - Les voix de l'indépendance Carrières et prises de position artistiques aux marges de l'industrie du rap 1801 Brice Miclet - SAMPLE! Aux origines du son hip-hop 3003 Bursty 2 Brazza - Night Day, la grande époque du rap français indépendant 1605 Antoine Laurent - Les ovnis du rap XX05 Anonyme - Psaumes - Un sépulcre et toujours un nom 3105 Bursty 2 Brazza - L'odyssée de la mix-tape en France Vol. 2 2511 Singemongol - Le Pilote Chapitre 1 XX12 Ludovic Villard - La lune boit tout ce qu'elle peut mais laisse de généreux pourboires 2019 1203 Saf - La philosophie du rap 2208 Raphaël Malkin - Le Rugissant 1510 Rockin' Squat - Chronique d'une formule annoncée 2310 L'Abcdr du son - L'obsession rap 3010 Kamal Haussmann - Time Bomb 3110 Snoop Dogg - Ça fume en cuisine ! trad. Jeanne Robert Kevin Thevenet 2111 Sylvain Bertot - Ladies First - Une anthologie du rap au féminin 2811 Joey Starr Kool Shen - Suprême NTM XX12 David Delaplace - Les Offs XX12 Ludovic Villard - Il est cinq heures dans un monde civilisé, Pourquoi je lis Septentrion de Louis Calaferte XXXX Yung Lean - War Magazine 2020 2507 Karim Hammou Emmanuelle Carinos dir. - Perspectives esthétiques sur les musiques hip-hop 1709 Nicolas Rogès - Kendrick Lamar, De Compton à la Maison-Blanche 2011 Maxime Delcourt - The Neptunes Timbaland - Les beatmakers qui ont révolutionné la pop music fin d'année Livre de Manu Key Mafia K'1 Fry Date inconnue Singemongol - Le Pilote Chapitre 22</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pousse Les Bass</t>
+          <t>Rappeur</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Quel est votre numéro ? J'ai découvert l'animalerie avec l'album de Oster Lapwass Absence de veine dans un monde sans gain. Je l'ai télécharger car je suis lyonnais et j'écoute tout ce qui vient de Lyon. Mais Absence de veine dans un monde sans gain, j'l'ai surkiffé ! J'y ait découvert l'animalerie dans des morceaux comme La gueule, La poisse ou Festen. L'animalerie, c'est L'entourage lyonnais Un peu plus tard j'suis tombé sur La mousse de Dico de Bavoog Avers. L'album m'a plu et je me suis encore plus intéressé à L'animalerie Mais au lieu de vous parler des autres projets du collectifs L'adultère est un jeu d'enfant, Le pire de tous, ect. j'vais vous parler des membres Oster Lapwass Grand beatmaker, et patron de l'Animalerie, ça fait quinze ans que Oster Lapwass est dans le Hip-Hop. Il a d'abord établie des connexions avec toute la scène hip-hop Lyonnaise, puis il s'est ataqué à la France avec son collectif L'animalerie Presque aussi connu qu'un beatmaker comme Hologram Lo, la presse spécialisé lui a accordé de très bonne critique Il a deja un album Absence de veine dans un monde sans gain, on peut voir sur nom sur toute les productions du collectif. Il organise des sessions freestyles dont une avec L'entourloupe Sur scène Oster Lapwass n'hésite pas a lacher quelque 16 DJ Fly Membre du collectif l'Animalerie, FLY est un très grands DJ français. Il a remporté les coupes de France DMC en 2004, 2005, 2006, 2007. Il est devenu champion de France en 2007 puis il est devenu champion du monde DMC en 2008. En 2012 il remporte le World's Greatest DJ Performance. En 2013 il remporte encore les titres de champion de France et champion du monde DMC ! Sacré palmarés ! Depuis débuts 2000 il a sortie plusieurs mixtapes, singles et EPs. Il s'est fait connaitre avec le Scratch Bandits Crew. Il fait maintenant partie de l'Animalerie, vous pouvez aussi le retrouver en solo dans toute la France et sur la terre entière, dans des sets mélangeant hip-hop, rock, soul, electro et dubstep L'animalerie et FFly ça veut dire Lyon, le graff et l'amitié. Ça veut aussi dire de nombreuses productions et remix, que ce soit avec Oster Lapwass ou Anton Serra. Et ça veut surtout dire des fucking live. FLY est un génie qui peut rendre accro n'importe qui Que ce soit avec le collectif, en solo ou en after show, DJ Fly est un artiste que vous ne regretterez pas d'avoir écouter. Entre les X-Games , Festival International des Sport Extrême , Dubaï, 3 Tournées en Asie , Tournée Canada , tournée DMC U.K. etc... dans lesquels il se produit aux côtés d'artistes emblématiques comme Q-Bert, Grand Master Flash, Methodman, Redman, Busta Rhymes, Mobb Deep, Nas, Foreign Beggars, Chinese Man, Puppetmastaz, A-Trak, Cut Killer, Dee Nasty, Birdy Nam Nam, C2C Le 7 octobre 2013, après son deuxième titre de champion du monde, DJ Fly sort un premier EP Insolite avec Scratch Bandits Crew, Anton Serra, Les Gourmets ... Kacem Wapalek Kacem Wapalek ça veut dire mélange d'art et de technique. Grand rappeurappeuret lyriciste,il maitrise autant le style que la grammaire, c'est l'un des plus grands rappeur de ces dernières années, et ça tout le monde l'affirme Kacem déchire aussi et surtout sur scène. Il est passionné par le verbe et le beat mais ce qu'il préfere c'est les concerts où il se lache C'est l'un des premiers, avec Lapwass à se faire connaitre via le net. Ses freestyles video sur les beats de Lapwass ont contribuer à son succès Dans chaque concert la foule est en délire. En même temps tout les amateurs de Hip-Hop connaissent le nom de Kacem Wapalek Anton Serra Anton serra voue un culte au Hip-Hop depuis son plus jeune age. Maitrisant le verbe selon la street, c'est en graffant qu'il commence à s'exprimer dans les années 90. Graffant avec les SOK, Anton est surtout un grand kiffeur Rap. Son premiers crew est les Frandjos Anton Serra est un grand artiste. Il se défonce que ce soit pour dans la compo ou dans l'interpretation. Son style et ses textes lui ont permis de percer dans le rap français Il a sortie 2 albums Sales Gones 2012,Frandjos 2013 et 1 maxi Antonster Lapwaserra 2012, fait de nombreuses apparitions, notamment avec les membres de son entourage, mais surtout de sacré scène, Anto a prouvé qu'il n'était pas n'importe qui et que le gaame était dans la merde. La critique a même qualifié son album Sales Gones d'opus majeur de l'année 2012 Mais pour kiffer Anton il faut surtout le voir sur scène avec Oster Lapwass Lucio Bukowski Lucio Bukowski est considéré comme un intello du rap français, un petit peu a la manière d'un Oxmo, car tout comme lui c'est l'une des plumes les plus affinés du rap français. Mais de toutes façons Lucio ne cherche pas le succès, veut juste s'exprimer et se faire plaisir Il a participé à groupes de rap avant de faire la connaissance d'Oster Lapwass en 2008. Il rejoint alors les rappeurs Anton Serra, Kacem Wapalek qui formeront bientôt l'Animalerie Ces dernières années, avec le crew il n'a cessé d'écrire, de produire, de sortir des projets, de faire des scènes ... après 10 ans dans l'rap Lucio est encore loin d'avoir terminé Bavoog Avers Les Bavoog Avers , c'est un groupe issu du collectif, composé des CDK Cidji, Dico, Kalam's et Nadir, accompagnés de Alex Cocco aux machines Ils ont beau être jeunes , mais pas mauvais pour autant, la valeur n'attend point au nombre des années ! Et puis en termes de flow, de lyrics, d'énergie et de style, il sont au dessus de pas mal de rappeurs français. Malgré leur jeune âge ça fait presque dix ans qu'il côtoient le mic et la MPC. C'est la relève du hip-hop ! Après avoir trainé chez Lapwass pendant un bon moment, c'est logique que les CDK, puis Nadir, rejoignent l'Animalerie et se font remarquer lors des freestyles vidéos du gang. Ils ont la classe, ont toujours un temps d'avance et donne tout sur scène, en studios... Niveau discographie, on peut les trouver dans les opus de leurs camarades lyonnais en 2011 les CDK sortent leur premier album Le premier , puis Dico sort La mousse en solo en 2012 Attendus au tournant, les CDK accompagnés à présent de Nadir, travaillent sur un nouvel album,attendu par à peu prêts tout le monde. Soyez prêts ! Bavoog Avers, c'est un gros coup de pieds au cul du rap français Sur scène, les Bavoog Avers proposent actuellement un set d'une quarantaine de minutes. Et s'ils sont en combinaison avec d'autres membres de l'animalerie, ils participent ensemble ou indépendamment aux shows de leurs camarades Je sais que j'ai pas parler des autres membres du crew mais j'donne quand même les blazes Ilenazz, Na.K, Ethor Skull, Thriller, Missak, Marie, Milka, Nomad, Libann ... L'animalerie c'est le crew du moment2</t>
         </is>
       </c>
     </row>
@@ -815,27 +815,10 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Rappeur</t>
+          <t>Y’a pas de problème</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
-        <is>
-          <t>Quel est votre numéro ? J'ai découvert l'animalerie avec l'album de Oster Lapwass Absence de veine dans un monde sans gain. Je l'ai télécharger car je suis lyonnais et j'écoute tout ce qui vient de Lyon. Mais Absence de veine dans un monde sans gain, j'l'ai surkiffé ! J'y ait découvert l'animalerie dans des morceaux comme La gueule, La poisse ou Festen. L'animalerie, c'est L'entourage lyonnais Un peu plus tard j'suis tombé sur La mousse de Dico de Bavoog Avers. L'album m'a plu et je me suis encore plus intéressé à L'animalerie Mais au lieu de vous parler des autres projets du collectifs L'adultère est un jeu d'enfant, Le pire de tous, ect. j'vais vous parler des membres Oster Lapwass Grand beatmaker, et patron de l'Animalerie, ça fait quinze ans que Oster Lapwass est dans le Hip-Hop. Il a d'abord établie des connexions avec toute la scène hip-hop Lyonnaise, puis il s'est ataqué à la France avec son collectif L'animalerie Presque aussi connu qu'un beatmaker comme Hologram Lo, la presse spécialisé lui a accordé de très bonne critique Il a deja un album Absence de veine dans un monde sans gain, on peut voir sur nom sur toute les productions du collectif. Il organise des sessions freestyles dont une avec L'entourloupe Sur scène Oster Lapwass n'hésite pas a lacher quelque 16 DJ Fly Membre du collectif l'Animalerie, FLY est un très grands DJ français. Il a remporté les coupes de France DMC en 2004, 2005, 2006, 2007. Il est devenu champion de France en 2007 puis il est devenu champion du monde DMC en 2008. En 2012 il remporte le World's Greatest DJ Performance. En 2013 il remporte encore les titres de champion de France et champion du monde DMC ! Sacré palmarés ! Depuis débuts 2000 il a sortie plusieurs mixtapes, singles et EPs. Il s'est fait connaitre avec le Scratch Bandits Crew. Il fait maintenant partie de l'Animalerie, vous pouvez aussi le retrouver en solo dans toute la France et sur la terre entière, dans des sets mélangeant hip-hop, rock, soul, electro et dubstep L'animalerie et FFly ça veut dire Lyon, le graff et l'amitié. Ça veut aussi dire de nombreuses productions et remix, que ce soit avec Oster Lapwass ou Anton Serra. Et ça veut surtout dire des fucking live. FLY est un génie qui peut rendre accro n'importe qui Que ce soit avec le collectif, en solo ou en after show, DJ Fly est un artiste que vous ne regretterez pas d'avoir écouter. Entre les X-Games , Festival International des Sport Extrême , Dubaï, 3 Tournées en Asie , Tournée Canada , tournée DMC U.K. etc... dans lesquels il se produit aux côtés d'artistes emblématiques comme Q-Bert, Grand Master Flash, Methodman, Redman, Busta Rhymes, Mobb Deep, Nas, Foreign Beggars, Chinese Man, Puppetmastaz, A-Trak, Cut Killer, Dee Nasty, Birdy Nam Nam, C2C Le 7 octobre 2013, après son deuxième titre de champion du monde, DJ Fly sort un premier EP Insolite avec Scratch Bandits Crew, Anton Serra, Les Gourmets ... Kacem Wapalek Kacem Wapalek ça veut dire mélange d'art et de technique. Grand rappeurappeuret lyriciste,il maitrise autant le style que la grammaire, c'est l'un des plus grands rappeur de ces dernières années, et ça tout le monde l'affirme Kacem déchire aussi et surtout sur scène. Il est passionné par le verbe et le beat mais ce qu'il préfere c'est les concerts où il se lache C'est l'un des premiers, avec Lapwass à se faire connaitre via le net. Ses freestyles video sur les beats de Lapwass ont contribuer à son succès Dans chaque concert la foule est en délire. En même temps tout les amateurs de Hip-Hop connaissent le nom de Kacem Wapalek Anton Serra Anton serra voue un culte au Hip-Hop depuis son plus jeune age. Maitrisant le verbe selon la street, c'est en graffant qu'il commence à s'exprimer dans les années 90. Graffant avec les SOK, Anton est surtout un grand kiffeur Rap. Son premiers crew est les Frandjos Anton Serra est un grand artiste. Il se défonce que ce soit pour dans la compo ou dans l'interpretation. Son style et ses textes lui ont permis de percer dans le rap français Il a sortie 2 albums Sales Gones 2012,Frandjos 2013 et 1 maxi Antonster Lapwaserra 2012, fait de nombreuses apparitions, notamment avec les membres de son entourage, mais surtout de sacré scène, Anto a prouvé qu'il n'était pas n'importe qui et que le gaame était dans la merde. La critique a même qualifié son album Sales Gones d'opus majeur de l'année 2012 Mais pour kiffer Anton il faut surtout le voir sur scène avec Oster Lapwass Lucio Bukowski Lucio Bukowski est considéré comme un intello du rap français, un petit peu a la manière d'un Oxmo, car tout comme lui c'est l'une des plumes les plus affinés du rap français. Mais de toutes façons Lucio ne cherche pas le succès, veut juste s'exprimer et se faire plaisir Il a participé à groupes de rap avant de faire la connaissance d'Oster Lapwass en 2008. Il rejoint alors les rappeurs Anton Serra, Kacem Wapalek qui formeront bientôt l'Animalerie Ces dernières années, avec le crew il n'a cessé d'écrire, de produire, de sortir des projets, de faire des scènes ... après 10 ans dans l'rap Lucio est encore loin d'avoir terminé Bavoog Avers Les Bavoog Avers , c'est un groupe issu du collectif, composé des CDK Cidji, Dico, Kalam's et Nadir, accompagnés de Alex Cocco aux machines Ils ont beau être jeunes , mais pas mauvais pour autant, la valeur n'attend point au nombre des années ! Et puis en termes de flow, de lyrics, d'énergie et de style, il sont au dessus de pas mal de rappeurs français. Malgré leur jeune âge ça fait presque dix ans qu'il côtoient le mic et la MPC. C'est la relève du hip-hop ! Après avoir trainé chez Lapwass pendant un bon moment, c'est logique que les CDK, puis Nadir, rejoignent l'Animalerie et se font remarquer lors des freestyles vidéos du gang. Ils ont la classe, ont toujours un temps d'avance et donne tout sur scène, en studios... Niveau discographie, on peut les trouver dans les opus de leurs camarades lyonnais en 2011 les CDK sortent leur premier album Le premier , puis Dico sort La mousse en solo en 2012 Attendus au tournant, les CDK accompagnés à présent de Nadir, travaillent sur un nouvel album,attendu par à peu prêts tout le monde. Soyez prêts ! Bavoog Avers, c'est un gros coup de pieds au cul du rap français Sur scène, les Bavoog Avers proposent actuellement un set d'une quarantaine de minutes. Et s'ils sont en combinaison avec d'autres membres de l'animalerie, ils participent ensemble ou indépendamment aux shows de leurs camarades Je sais que j'ai pas parler des autres membres du crew mais j'donne quand même les blazes Ilenazz, Na.K, Ethor Skull, Thriller, Missak, Marie, Milka, Nomad, Libann ... L'animalerie c'est le crew du moment2</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Dee Nasty</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Y’a pas de problème</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>Chacune d'mes traces est machiavélique On dit qu'mon flow est mélancolique La prod' est signée En'Zoo, t'as ressenti l'truc d'Amérique ? Y'a des lignes, t'as des rimes, et si t'es hip-hop t'es partant Si t'as fini, rembobine et reçois mon son comme partage Qu'on s'attache et qu'on placarde De nuit ou sous une lampe Si j't'ai éclairé sur l'sujet, pourquoi on s'amuse mieux en Hollande ? Ça taffe depuis un moment C'est tout c'qu'on veut retransmettre Notre rap n'a pas d'visage, c'est tout c'qui fait sa beauté Excusez-nous d'être honnêtes, d'aimer l'hip-hop à la lettre Pour moi un bon son d'Big L c'est mieux qu'les filles d'à coté J'ai trop d'choses à noter, demande à R.Can J'suis de Sète jusqu'à Perpi', et ceux qui m'traduisent en Espagne Gueuler ou me taire, parler ou mentir Le stylo Bic d'Harry Potter, pas une magie pour rebondir Un album que j'm'enterre, j'viens d'loin comment vous dire Et que Dieu m'en soit témoin, j'n'ai pas d'maille pour les coquines J'n'ai pas l'temps je le confirme Si tu n'm'aimes pas je fais avec J'parle français, ma consigne sans la CB de Ben Affleck Sans l'CV de ceux qui grimpent, qu'on retrouve une fois en-bas Pendant qu't'étais dans tes studios, ben ton père s'tuait au taf Inutile d'chercher une dame, d'après la reine tu ne comptes pas Fais l'calcul ça n'aide plus d'avoir un BEP compta' Ça sert à quoi de rester stable, souriant voire amical ? À force de regarder les gens, j'comprends tes douleurs cervicales Ne t'inquiète pas on est tous pareils Toi qui vit autre part écoute, my man Je crois que l'écriture et la musique t'amènent Voir que chacun d'entre nous a un p'tit problème Woho Oh mon Dieu qu'elle nous a fait progressé Big up à ceux qui nous ont lâchés, qui n'ont connu que la période d'essai On est dedans depuis le début, sans notice, très impliqués Tu peux courir avant qu'mes valeurs ne se pervertissent J'zappe ceux qui trahissent, j'regarde ceux qui sourient J'suis comme un gamin quand Dee Nasty fait mon warm-up à Paris Alors non merci si mon rap n'est pas porteur de message S'il n'est pas une bouée dans l'aquarium où le Monde nage S'il n'est pas une perche tendue vers un avenir optimiste Secouez-moi si un jour il perd sa flamme militantiste Hip-hop jusqu'à l'amour comme Nabil Zéroual Le plus important c'est le chemin, pas d'atteindre l'étoile Intègre et sans aucun problème existentiel Bien sûr que l'rap c'était mieux avant, et ça c'est officiel J'parle de valeurs, de message, pas d'instrumentale Mais d'ceux qui sont dessus et te saoulent en faisant l'apologie du mal Avec le temps tu t'rendras compte qu'ils ne sont même pas fiables Ils ignorent tant d'choses, ils connaissent même pas Fabe Nous on est chauds, opé sans la te-car d'Affleck Ben Avec l'envie d'offrir à nos proches ce que vise Amel Bent Voilà ce qu'on défend, la façon dont on l'imagine Rachid, j'comprends qu'tu n'veuilles pas d'pâtes dans ton tajine Les fondations feront la tenue de tes entreprises Le but n'est pas qu'elles soient bancales comme celle érigé à Pise Ne t'inquiète pas on est tous pareils Toi qui vit autre part écoute, my man Je crois que l'écriture et la musique t'amènent Voir que chacun d'entre nous a un p'tit problème Woho</t>
         </is>
